--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="181">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -439,6 +439,126 @@
   </si>
   <si>
     <t>clickActiveBtn_Status_underListView_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Go Back"]').parentElement.nextElementSibling.firstChild.innerText</t>
+  </si>
+  <si>
+    <t>followUpDetailsScreen_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Search"').firstChild</t>
+  </si>
+  <si>
+    <t>searchBtn_underFollowUpList_610</t>
+  </si>
+  <si>
+    <t>BackBtn_underFollowUpList_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[id="pr_id_16"]').firstElementChild.firstElementChild.querySelector('div').nextElementSibling.nextElementSibling.querySelector('span').firstChild</t>
+  </si>
+  <si>
+    <t>inputBox_searchBtn_underFollowUpDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelector("#pr_id_6-table &gt; tbody &gt; tr &gt; td:nth-child(4) &gt; p-celleditor")</t>
+  </si>
+  <si>
+    <t>matchin data</t>
+  </si>
+  <si>
+    <t>validate_theMatchingData_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-paginator')[1].firstChild.firstChild.nextElementSibling.textContent</t>
+  </si>
+  <si>
+    <t>vaildate_theMisMatchingData_610</t>
+  </si>
+  <si>
+    <t>Customer identification details  AT_DC_ID_001</t>
+  </si>
+  <si>
+    <t>Id_Type_UnderCustomerIdentificationDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="ID Type tooltip"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="SCR.ID_NUMBER.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>Id_Number_UnderCustomerIdentificationDetails_610</t>
+  </si>
+  <si>
+    <t>Issue_Date_UnderCustomerIdentificationDetails_610</t>
+  </si>
+  <si>
+    <t>Expiry_Date_UnderCustomerIdentificationDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Issuing Authority"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>IssuingAuthority_UnderCustomerIdentificationDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Country of Issue"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>CountryOfIssue_UnderCustomerIdentificationDetails_610</t>
+  </si>
+  <si>
+    <t>additionalCustomerInfo_610</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seg3")</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.nextElementSibling.querySelector('button')</t>
+  </si>
+  <si>
+    <t>identificationAddBtn</t>
+  </si>
+  <si>
+    <t>viewIcon_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="View"')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.nextElementSibling.querySelector('button[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>identificationEyeBtn_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-text="Go Back"')[1]</t>
+  </si>
+  <si>
+    <t>backBtn_UnderCustomerDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.ISSUE_DATE.TOOLTIP"').firstElementChild.firstElementChild.querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.EXPIRY_DATE.TOOLTIP"').firstElementChild.firstElementChild.lastChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.ISSUE_DATE.TOOLTIP"').firstElementChild.firstElementChild.querySelector('button')</t>
+  </si>
+  <si>
+    <t>getAtribute_InIssueDate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.EXPIRY_DATE.TOOLTIP"').firstElementChild.firstElementChild.querySelector('button')</t>
+  </si>
+  <si>
+    <t>getAtribute_InExpiryeDate_610</t>
   </si>
 </sst>
 </file>
@@ -460,7 +580,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -494,6 +620,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -872,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1396,6 +1524,168 @@
       </c>
       <c r="B77" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>165</v>
+      </c>
+      <c r="B98" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>178</v>
+      </c>
+      <c r="B103" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="202">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -559,6 +559,69 @@
   </si>
   <si>
     <t>getAtribute_InExpiryeDate_610</t>
+  </si>
+  <si>
+    <t>Facility Info</t>
+  </si>
+  <si>
+    <t>FacilityInfo_610</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seg6")</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.SC"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>Scheme_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PRODUCT.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>Product_610</t>
+  </si>
+  <si>
+    <t>RequestAmount_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.TE"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>LoanTenure_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.AM"]').parentElement.nextElementSibling.firstChild.firstChild</t>
+  </si>
+  <si>
+    <t>facilityType_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.FA"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PRODUCT.TOOLTIP"]').parentElement.querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>getAttribute_InProduct_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.FA"]').parentElement.querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>getAttribute_InFacilityType_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.SC"]').parentElement.querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>getAttribute_InScheme_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.TE"]').parentElement.querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>getAttribute_InTenure_610</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1686,6 +1749,91 @@
       </c>
       <c r="B104" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>187</v>
+      </c>
+      <c r="B111" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>188</v>
+      </c>
+      <c r="B112" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>195</v>
+      </c>
+      <c r="B116" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>199</v>
+      </c>
+      <c r="B118" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>201</v>
+      </c>
+      <c r="B119" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="297">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -622,6 +622,291 @@
   </si>
   <si>
     <t>getAttribute_InTenure_610</t>
+  </si>
+  <si>
+    <t>Offering Offer Details</t>
+  </si>
+  <si>
+    <t>OfferDetailsSection_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-text="Go Back"')[1].parentElement.textContent</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-label')[0]</t>
+  </si>
+  <si>
+    <t>FinanceDetailsSection_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[2]</t>
+  </si>
+  <si>
+    <t>CreditScoreDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[3]</t>
+  </si>
+  <si>
+    <t>EligibilityDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[4]</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[5]</t>
+  </si>
+  <si>
+    <t>InstallmentsSection_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-label')[1]</t>
+  </si>
+  <si>
+    <t>AppealRequestsection_610</t>
+  </si>
+  <si>
+    <t>editBtnIndex2_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Accept Offer"]')</t>
+  </si>
+  <si>
+    <t>AcceptOffer_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-text="Edit"]')[0]</t>
+  </si>
+  <si>
+    <t>getAttribute_product_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-input[ng-reflect-model="Ijara Auto Retail Loan"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-input[ng-reflect-model="Ijara Auto Retails Loan Sub "]')</t>
+  </si>
+  <si>
+    <t>getAttribute_SubProduct_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-input[ng-reflect-model="Ijara auto retail loan scheme "]')</t>
+  </si>
+  <si>
+    <t>getAttribute_Scheme_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-input[ng-reflect-model="Ijara auto retail loan fixed r"]')</t>
+  </si>
+  <si>
+    <t>getAttribute_PrincingIndicator_610</t>
+  </si>
+  <si>
+    <t>BackBtn_NavigativeFacilityScreen_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"]').parentElement</t>
+  </si>
+  <si>
+    <t>offer details section</t>
+  </si>
+  <si>
+    <t>OflProduct_610</t>
+  </si>
+  <si>
+    <t>OflSubProduct_610</t>
+  </si>
+  <si>
+    <t>OflScheme_610</t>
+  </si>
+  <si>
+    <t>OflPrincingIndicator_610</t>
+  </si>
+  <si>
+    <t>OflOfferdAmount_610</t>
+  </si>
+  <si>
+    <t>OflTenure_610</t>
+  </si>
+  <si>
+    <t>OflNaturalOfFinance_610</t>
+  </si>
+  <si>
+    <t>OflCurrency_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Product"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Sub-Product"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Scheme"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Pricing Indicator"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Offered Amount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Nature of Finance"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Tenure"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Currency"]')</t>
+  </si>
+  <si>
+    <t>Finance Detalis</t>
+  </si>
+  <si>
+    <t>FdAmountRequested_610</t>
+  </si>
+  <si>
+    <t>FdDownPaymentAmount_610</t>
+  </si>
+  <si>
+    <t>FdTotalDownPaymentAmount_610</t>
+  </si>
+  <si>
+    <t>FdProfitAmount_610</t>
+  </si>
+  <si>
+    <t>FdTotalContractAmount_610</t>
+  </si>
+  <si>
+    <t>FdTotalIncome_610</t>
+  </si>
+  <si>
+    <t>FdTotalNetIncome</t>
+  </si>
+  <si>
+    <t>FdInstallmentFrequence_610</t>
+  </si>
+  <si>
+    <t>FdTenure_610</t>
+  </si>
+  <si>
+    <t>FdAdditionalDownPayment_610</t>
+  </si>
+  <si>
+    <t>FdDownPaymentPercentage_610</t>
+  </si>
+  <si>
+    <t>FdTotalFees_610</t>
+  </si>
+  <si>
+    <t>FdTotalObligation_610</t>
+  </si>
+  <si>
+    <t>FdNoOfInstallment_610</t>
+  </si>
+  <si>
+    <t>FdLastInstallmentAmount_610</t>
+  </si>
+  <si>
+    <t>FdAPR_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Obligations"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Net Income"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Income"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Fees"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Down Payment Amount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Contract Value"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="No. of Installments"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Last Installment Amount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="IRR"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Installment Frequency"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="APR"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Amount Requested"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Additional Down payment"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Percentage"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Tenure "]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Profit Amount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Amount"]')</t>
+  </si>
+  <si>
+    <t>FdIRR_610</t>
+  </si>
+  <si>
+    <t>Credit Rise Factor</t>
+  </si>
+  <si>
+    <t>TotalScore_610</t>
+  </si>
+  <si>
+    <t>RiseLevel_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="applScore"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="riskCatgId"]')</t>
+  </si>
+  <si>
+    <t>Credit Score Details</t>
+  </si>
+  <si>
+    <t>CSD_SrNo_610</t>
+  </si>
+  <si>
+    <t>CSD_CustomerName_610</t>
+  </si>
+  <si>
+    <t>CSD_CreditBureuaScore_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="score"]').firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="description"]').firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerId"]').firstChild</t>
+  </si>
+  <si>
+    <t>CreditRiskFactor_610</t>
   </si>
 </sst>
 </file>
@@ -643,7 +928,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,6 +947,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -675,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -686,6 +977,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1834,6 +2126,391 @@
       </c>
       <c r="B119" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>203</v>
+      </c>
+      <c r="B123" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>296</v>
+      </c>
+      <c r="B125" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>209</v>
+      </c>
+      <c r="B126" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>211</v>
+      </c>
+      <c r="B127" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>213</v>
+      </c>
+      <c r="B128" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="21" customHeight="1">
+      <c r="A129" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B129" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="24" customHeight="1">
+      <c r="A130" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B130" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>218</v>
+      </c>
+      <c r="B131" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>220</v>
+      </c>
+      <c r="B132" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>222</v>
+      </c>
+      <c r="B135" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>225</v>
+      </c>
+      <c r="B136" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>227</v>
+      </c>
+      <c r="B137" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>229</v>
+      </c>
+      <c r="B138" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>230</v>
+      </c>
+      <c r="B140" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>233</v>
+      </c>
+      <c r="B144" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>234</v>
+      </c>
+      <c r="B145" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>235</v>
+      </c>
+      <c r="B146" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>236</v>
+      </c>
+      <c r="B147" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>237</v>
+      </c>
+      <c r="B148" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>238</v>
+      </c>
+      <c r="B149" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>239</v>
+      </c>
+      <c r="B150" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>240</v>
+      </c>
+      <c r="B151" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B155" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>251</v>
+      </c>
+      <c r="B156" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>252</v>
+      </c>
+      <c r="B157" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>253</v>
+      </c>
+      <c r="B158" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>254</v>
+      </c>
+      <c r="B159" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>255</v>
+      </c>
+      <c r="B160" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>256</v>
+      </c>
+      <c r="B161" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>257</v>
+      </c>
+      <c r="B162" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>283</v>
+      </c>
+      <c r="B163" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>258</v>
+      </c>
+      <c r="B164" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>259</v>
+      </c>
+      <c r="B165" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>260</v>
+      </c>
+      <c r="B166" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>261</v>
+      </c>
+      <c r="B167" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>262</v>
+      </c>
+      <c r="B168" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>263</v>
+      </c>
+      <c r="B169" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>264</v>
+      </c>
+      <c r="B170" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>265</v>
+      </c>
+      <c r="B171" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>285</v>
+      </c>
+      <c r="B175" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>286</v>
+      </c>
+      <c r="B176" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>290</v>
+      </c>
+      <c r="B180" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>291</v>
+      </c>
+      <c r="B181" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>292</v>
+      </c>
+      <c r="B182" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="396">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -907,13 +907,310 @@
   </si>
   <si>
     <t>CreditRiskFactor_610</t>
+  </si>
+  <si>
+    <t>select_LOS_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[id="ion-rb-11-lbl"]')</t>
+  </si>
+  <si>
+    <t>New Application Customer Reference</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="relationshipType"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>salutation_610</t>
+  </si>
+  <si>
+    <t>relationshipType_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.CUST_REF_FNAME.TOOL"]').nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>firstName_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="salutation"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.CUST_REF_MNAME.TOOL"]').nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.CUST_REF_LNAME.TOOL"]').nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>lastName_610</t>
+  </si>
+  <si>
+    <t>middleName_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.CUST_REF_CUSTFULLNA"]').nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>customerFullName_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.CG_IDTYPE.D"]').parentElement.querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>identificationType_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.CG_IDNUM.DE"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>IidentificationNumber_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.CG_IDNUM.RE"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>residenceAddress_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.CUST_REF_OFFICEADDS"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>officeAddress_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.CUST_REF_CNO.TOOLTI"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>contactNumber_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.PHONE1.DETA"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>officePhoneNumber_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.MOBILE.DETA"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>primaryMobileNumber_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.EMAIL.DETAI"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>emailID_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.YEARS_KNOWN"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>NoOfYearKnow_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.COREBANKING"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>CIFnumber_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.MOBILE2.DET"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>alternativeMobileNumber_610</t>
+  </si>
+  <si>
+    <t>backBtn02_610</t>
+  </si>
+  <si>
+    <t>blank field popup</t>
+  </si>
+  <si>
+    <t>document.querySelector("#ion-overlay-17").shadowRoot.querySelector('div').textContent</t>
+  </si>
+  <si>
+    <t>fillAllTheDetailsPopup_610</t>
+  </si>
+  <si>
+    <t>onlyAlphaNumericCharterPopup_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-badge[color="primary error-text"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murabha App Data Entery Document Details </t>
+  </si>
+  <si>
+    <t>Murabha_DocumentsDetailsScreen_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Customer Name.TOOLTIP"]').parentElement.lastChild</t>
+  </si>
+  <si>
+    <t>CustomerName_610</t>
+  </si>
+  <si>
+    <t>DocumentName_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_NAME.TOOLTIP"]').parentElement.lastChild</t>
+  </si>
+  <si>
+    <t>RequiredAtStage_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="REQUIRED_AT_STAGE.TOOLTIP"]').parentElement.lastChild</t>
+  </si>
+  <si>
+    <t>DocumentStatus_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_STATUS.TOOLTIP"]').parentElement.lastChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="MANDATORY_OR_OPTIONAL.TOOLTIP"]').parentElement.lastChild</t>
+  </si>
+  <si>
+    <t>Mandatory_Optional_610</t>
+  </si>
+  <si>
+    <t>DocumentCategeroy_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_CATEGORY.TOOLTIP"]').parentElement.lastChild</t>
+  </si>
+  <si>
+    <t>DefferralStage_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Deferral Stage.TOOLTIP"]').parentElement.lastChild</t>
+  </si>
+  <si>
+    <t>DefApprovedBy_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DEF_APPROVED_BY.TOOLTIP"]').parentElement.lastChild</t>
+  </si>
+  <si>
+    <t>ChangeInNaturalBy_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Change In Nature Approved By.T"]').parentElement.lastChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Form.TOOLTIP"]').parentElement.lastChild</t>
+  </si>
+  <si>
+    <t>DocumentsFrom_610</t>
+  </si>
+  <si>
+    <t>DocumentQuality_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Quality.TOOLTIP"]').parentElement.lastChild</t>
+  </si>
+  <si>
+    <t>DocumentRecivedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_APPROVED_BY.TOOLTIP"]').parentElement.lastChild</t>
+  </si>
+  <si>
+    <t>LocationRecivedBy_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_DETAILS_LOCATION_WHER"]').parentElement.lastChild</t>
+  </si>
+  <si>
+    <t>UploadDate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="UPLOAD_DATE"]').querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="Expected Receipt Date"]').querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>ExpectedRecepitedDate_610</t>
+  </si>
+  <si>
+    <t>DataOfExpiry_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="Date Of Expiry"]').querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.DOCUMENT_NUMBER.TOOLTIP"]').parentElement.querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>DocumentReferenceNumber_610</t>
+  </si>
+  <si>
+    <t>RackNo_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.RACK_NUMBER.TOOLTIP"]').parentElement.querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.SHELF_NUMBER.TOOLTIP"]').parentElement.querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>ShelfN0_610</t>
+  </si>
+  <si>
+    <t>BoxNo_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.BOX_NUMBER.TOOLTIP"]').parentElement.querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>Remarks_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Remarks.TOOLTIP"]').parentElement.querySelector('textarea[name="ion-textarea-0"]')</t>
+  </si>
+  <si>
+    <t>ScrollUp</t>
+  </si>
+  <si>
+    <t>ApplicationID_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-card-content[class="p-1 m-0 ios card-content-ios hydrated"]')[3]</t>
+  </si>
+  <si>
+    <t>Validate Editable Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_NAME.TOOLTIP"]').parentElement.parentElement</t>
+  </si>
+  <si>
+    <t>EditableDocumentName_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_STATUS.TOOLTIP"]').parentElement.parentElement</t>
+  </si>
+  <si>
+    <t>EditableDocumentStatus_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Quality.TOOLTIP"]').parentElement.parentElement</t>
+  </si>
+  <si>
+    <t>EditableDocumentQuality_610</t>
+  </si>
+  <si>
+    <t>EditableDocumentForm_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Form.TOOLTIP"]').parentElement.parentElement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,8 +1224,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,6 +1256,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -966,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -978,6 +1287,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B182"/>
+  <dimension ref="A1:B246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" topLeftCell="B230" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1385,1132 +1696,1541 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
+        <v>297</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>70</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>88</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" t="s">
-        <v>92</v>
+        <v>112</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>119</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>126</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="B73" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>140</v>
-      </c>
-      <c r="B77" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>148</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="6" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="6" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>151</v>
-      </c>
-      <c r="B85" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>153</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="3" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="3" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>174</v>
-      </c>
-      <c r="B90" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>160</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
+      </c>
+      <c r="B94" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>162</v>
-      </c>
-      <c r="B95" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>164</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>165</v>
-      </c>
-      <c r="B98" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B99" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B100" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>169</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>178</v>
-      </c>
-      <c r="B103" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>180</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="3" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="3" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>182</v>
-      </c>
-      <c r="B109" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B111" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B113" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
         <v>192</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>195</v>
-      </c>
-      <c r="B116" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B117" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B118" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
+        <v>199</v>
+      </c>
+      <c r="B119" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>201</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="3" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" s="3" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>203</v>
-      </c>
-      <c r="B123" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B124" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="B125" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="B126" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B127" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
+        <v>211</v>
+      </c>
+      <c r="B128" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>213</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="21" customHeight="1">
-      <c r="A129" s="4" t="s">
+    <row r="130" spans="1:2" ht="21" customHeight="1">
+      <c r="A130" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="24" customHeight="1">
-      <c r="A130" s="4" t="s">
+    <row r="131" spans="1:2" ht="24" customHeight="1">
+      <c r="A131" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>218</v>
-      </c>
-      <c r="B131" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
+        <v>218</v>
+      </c>
+      <c r="B132" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
         <v>220</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>222</v>
-      </c>
-      <c r="B135" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B136" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B137" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
+        <v>227</v>
+      </c>
+      <c r="B138" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>229</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>230</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="8" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" s="8" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>233</v>
-      </c>
-      <c r="B144" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B145" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B146" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B147" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B148" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B149" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B150" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
+        <v>239</v>
+      </c>
+      <c r="B151" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
         <v>240</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="8" t="s">
+    <row r="154" spans="1:2">
+      <c r="A154" s="8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="4" t="s">
+    <row r="156" spans="1:2">
+      <c r="A156" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>251</v>
-      </c>
-      <c r="B156" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B157" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B158" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B159" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B160" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B161" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B162" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="B163" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B164" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B165" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
+        <v>264</v>
+      </c>
+      <c r="B171" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
         <v>265</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B172" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="8" t="s">
+    <row r="174" spans="1:2">
+      <c r="A174" s="8" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>285</v>
-      </c>
-      <c r="B175" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
+        <v>285</v>
+      </c>
+      <c r="B176" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
         <v>286</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="8" t="s">
+    <row r="179" spans="1:2">
+      <c r="A179" s="8" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
-        <v>290</v>
-      </c>
-      <c r="B180" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B181" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
+        <v>291</v>
+      </c>
+      <c r="B182" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
         <v>292</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>302</v>
+      </c>
+      <c r="B188" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>301</v>
+      </c>
+      <c r="B189" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>304</v>
+      </c>
+      <c r="B190" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>309</v>
+      </c>
+      <c r="B191" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>308</v>
+      </c>
+      <c r="B192" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>311</v>
+      </c>
+      <c r="B193" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>313</v>
+      </c>
+      <c r="B194" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>315</v>
+      </c>
+      <c r="B195" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>317</v>
+      </c>
+      <c r="B196" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>319</v>
+      </c>
+      <c r="B197" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>321</v>
+      </c>
+      <c r="B198" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>323</v>
+      </c>
+      <c r="B199" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>333</v>
+      </c>
+      <c r="B200" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>325</v>
+      </c>
+      <c r="B201" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>327</v>
+      </c>
+      <c r="B202" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>329</v>
+      </c>
+      <c r="B203" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>331</v>
+      </c>
+      <c r="B204" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>334</v>
+      </c>
+      <c r="B205" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>337</v>
+      </c>
+      <c r="B209" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>338</v>
+      </c>
+      <c r="B210" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>341</v>
+      </c>
+      <c r="B214" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>343</v>
+      </c>
+      <c r="B215" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>344</v>
+      </c>
+      <c r="B216" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>346</v>
+      </c>
+      <c r="B217" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>348</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>351</v>
+      </c>
+      <c r="B219" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>352</v>
+      </c>
+      <c r="B220" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>354</v>
+      </c>
+      <c r="B221" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>356</v>
+      </c>
+      <c r="B222" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>358</v>
+      </c>
+      <c r="B223" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>361</v>
+      </c>
+      <c r="B224" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>362</v>
+      </c>
+      <c r="B225" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>364</v>
+      </c>
+      <c r="B226" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>366</v>
+      </c>
+      <c r="B227" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>368</v>
+      </c>
+      <c r="B228" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>371</v>
+      </c>
+      <c r="B229" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>372</v>
+      </c>
+      <c r="B230" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>375</v>
+      </c>
+      <c r="B231" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>376</v>
+      </c>
+      <c r="B232" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>379</v>
+      </c>
+      <c r="B233" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>380</v>
+      </c>
+      <c r="B234" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>382</v>
+      </c>
+      <c r="B235" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>385</v>
+      </c>
+      <c r="B239" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>389</v>
+      </c>
+      <c r="B243" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>391</v>
+      </c>
+      <c r="B244" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>393</v>
+      </c>
+      <c r="B245" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>394</v>
+      </c>
+      <c r="B246" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="Ijara_AD_DocumentDetails" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Murabha_Module" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="425">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -474,9 +474,6 @@
     <t>validate_theMatchingData_610</t>
   </si>
   <si>
-    <t>document.querySelectorAll('p-paginator')[1].firstChild.firstChild.nextElementSibling.textContent</t>
-  </si>
-  <si>
     <t>vaildate_theMisMatchingData_610</t>
   </si>
   <si>
@@ -1026,9 +1023,6 @@
     <t>blank field popup</t>
   </si>
   <si>
-    <t>document.querySelector("#ion-overlay-17").shadowRoot.querySelector('div').textContent</t>
-  </si>
-  <si>
     <t>fillAllTheDetailsPopup_610</t>
   </si>
   <si>
@@ -1204,6 +1198,99 @@
   </si>
   <si>
     <t>document.querySelector('ion-label[ng-reflect-text="Document Form.TOOLTIP"]').parentElement.parentElement</t>
+  </si>
+  <si>
+    <t>Remarks_Format_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Remarks"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-file-upload[id="fileUploaded"]').firstChild.firstChild.firstChild.querySelector('div')</t>
+  </si>
+  <si>
+    <t>UploadDocument_610</t>
+  </si>
+  <si>
+    <t>Validate  Screen should get open with already filled data</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_NAME.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_CATEGORY.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>DocumentNamePancard_610</t>
+  </si>
+  <si>
+    <t>DocumentCategoryDigitialKYC_610</t>
+  </si>
+  <si>
+    <t>saveBtn_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-save"')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast').shadowRoot.querySelector('div[class="toast-message"]')</t>
+  </si>
+  <si>
+    <t>inputBox_searchBtn_murabhaDocumentDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-paginator')[1].firstChild.firstChild.nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[mode="ios"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"]').parentElement.nextElementSibling</t>
+  </si>
+  <si>
+    <t>DocumentDetailsScreen_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-title[mode="md"]')</t>
+  </si>
+  <si>
+    <t>DocumentDetailsFirstScreen_610</t>
+  </si>
+  <si>
+    <t>nextBtn_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[class*="btnNext"]')</t>
+  </si>
+  <si>
+    <t>CalledWhen_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="SCR.FOLLOWUPDTL.CALLED_WHEN.TO"').parentElement.nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="SCR.FOLLOWUPDTL.FOLL_UP_DT.TOO"]').parentElement.nextElementSibling</t>
+  </si>
+  <si>
+    <t>followUpDate_610</t>
+  </si>
+  <si>
+    <t>Murabha_LoginFieldName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Validate format</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="calledWhen"] p-calendar')</t>
+  </si>
+  <si>
+    <t>formatCalledFormat</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="SCR.FOLLOWUPDTL.CALLED_WHEN.TO"]').parentElement.nextElementSibling</t>
   </si>
 </sst>
 </file>
@@ -1666,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B246"/>
+  <dimension ref="A1:B271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B230" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView topLeftCell="B247" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A266" sqref="A266:B268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1696,10 +1783,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2232,402 +2319,402 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="6" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>406</v>
+      </c>
+      <c r="B83" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="6" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>151</v>
-      </c>
-      <c r="B86" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B87" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>174</v>
-      </c>
-      <c r="B91" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B92" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B93" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>160</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
+      </c>
+      <c r="B95" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>162</v>
-      </c>
-      <c r="B96" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B97" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>165</v>
-      </c>
-      <c r="B99" t="s">
-        <v>166</v>
+      <c r="B98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B100" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B102" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>178</v>
-      </c>
-      <c r="B104" t="s">
-        <v>177</v>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>168</v>
+      </c>
+      <c r="B103" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B105" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>182</v>
-      </c>
-      <c r="B110" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B111" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B112" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B113" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
+        <v>187</v>
+      </c>
+      <c r="B114" t="s">
         <v>190</v>
-      </c>
-      <c r="B114" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
+        <v>189</v>
+      </c>
+      <c r="B115" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" t="s">
         <v>192</v>
-      </c>
-      <c r="B115" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>195</v>
-      </c>
-      <c r="B117" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B118" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B119" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
+        <v>198</v>
+      </c>
+      <c r="B120" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="B120" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>203</v>
-      </c>
-      <c r="B124" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B125" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="B126" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>209</v>
+        <v>295</v>
       </c>
       <c r="B127" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B128" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
+        <v>210</v>
+      </c>
+      <c r="B129" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>212</v>
+      </c>
+      <c r="B130" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="21" customHeight="1">
+      <c r="A131" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B131" t="s">
         <v>213</v>
       </c>
-      <c r="B129" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="21" customHeight="1">
-      <c r="A130" s="4" t="s">
+    </row>
+    <row r="132" spans="1:2" ht="24" customHeight="1">
+      <c r="A132" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B132" t="s">
         <v>215</v>
-      </c>
-      <c r="B130" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="24" customHeight="1">
-      <c r="A131" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B131" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>218</v>
-      </c>
-      <c r="B132" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
+        <v>217</v>
+      </c>
+      <c r="B133" t="s">
         <v>220</v>
       </c>
-      <c r="B133" t="s">
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>222</v>
-      </c>
-      <c r="B136" t="s">
-        <v>223</v>
+      <c r="B134" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B137" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B138" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
+        <v>226</v>
+      </c>
+      <c r="B139" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>228</v>
+      </c>
+      <c r="B140" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
         <v>229</v>
       </c>
-      <c r="B139" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
+      <c r="B142" t="s">
         <v>230</v>
       </c>
-      <c r="B141" t="s">
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="8" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>233</v>
-      </c>
-      <c r="B145" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B146" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B147" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B148" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B149" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B150" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B151" t="s">
         <v>246</v>
@@ -2635,68 +2722,68 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B152" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>239</v>
+      </c>
+      <c r="B153" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="8" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" s="4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B156" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>251</v>
-      </c>
       <c r="B157" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>267</v>
@@ -2704,15 +2791,15 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>274</v>
@@ -2720,129 +2807,129 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="B165" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B166" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B167" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B168" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B169" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B170" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B171" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B172" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
-        <v>285</v>
-      </c>
-      <c r="B176" t="s">
-        <v>287</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>264</v>
+      </c>
+      <c r="B173" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="8" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
+        <v>284</v>
+      </c>
+      <c r="B177" t="s">
         <v>286</v>
       </c>
-      <c r="B177" t="s">
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>285</v>
+      </c>
+      <c r="B178" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="8" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>290</v>
-      </c>
-      <c r="B181" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B182" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
+        <v>290</v>
+      </c>
+      <c r="B183" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>291</v>
+      </c>
+      <c r="B184" t="s">
         <v>292</v>
       </c>
-      <c r="B183" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
-        <v>302</v>
-      </c>
-      <c r="B188" t="s">
-        <v>300</v>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2850,23 +2937,23 @@
         <v>301</v>
       </c>
       <c r="B189" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
+        <v>300</v>
+      </c>
+      <c r="B190" t="s">
         <v>304</v>
-      </c>
-      <c r="B190" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B191" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2874,363 +2961,474 @@
         <v>308</v>
       </c>
       <c r="B192" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B193" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B194" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B195" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B196" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B197" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B198" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B199" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B200" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B201" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B202" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B203" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B204" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
+        <v>330</v>
+      </c>
+      <c r="B205" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>333</v>
+      </c>
+      <c r="B206" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="B205" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
-        <v>337</v>
-      </c>
-      <c r="B209" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
+        <v>335</v>
+      </c>
+      <c r="B210" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>336</v>
+      </c>
+      <c r="B211" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="B210" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
-        <v>341</v>
-      </c>
-      <c r="B214" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B215" t="s">
-        <v>342</v>
+        <v>182</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B216" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B217" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>348</v>
-      </c>
-      <c r="B218" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
+      </c>
+      <c r="B218" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>351</v>
-      </c>
-      <c r="B219" t="s">
-        <v>350</v>
+        <v>346</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B220" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B221" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B222" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B223" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B224" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B225" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B226" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B227" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B228" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B229" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B230" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B231" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B232" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B233" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B234" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
+        <v>378</v>
+      </c>
+      <c r="B235" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>380</v>
+      </c>
+      <c r="B236" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>394</v>
+      </c>
+      <c r="B237" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>397</v>
+      </c>
+      <c r="B238" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B235" t="s">
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="8" t="s">
+      <c r="B242" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
+    <row r="244" spans="1:2">
+      <c r="A244" s="8" t="s">
         <v>385</v>
-      </c>
-      <c r="B239" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
-        <v>389</v>
-      </c>
-      <c r="B243" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
-        <v>391</v>
-      </c>
-      <c r="B244" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="s">
-        <v>393</v>
-      </c>
-      <c r="B245" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B246" t="s">
-        <v>395</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>389</v>
+      </c>
+      <c r="B247" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>391</v>
+      </c>
+      <c r="B248" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>392</v>
+      </c>
+      <c r="B249" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>401</v>
+      </c>
+      <c r="B253" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>402</v>
+      </c>
+      <c r="B254" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>403</v>
+      </c>
+      <c r="B256" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>410</v>
+      </c>
+      <c r="B258" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>412</v>
+      </c>
+      <c r="B259" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>413</v>
+      </c>
+      <c r="B261" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>415</v>
+      </c>
+      <c r="B263" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>418</v>
+      </c>
+      <c r="B264" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>423</v>
+      </c>
+      <c r="B268" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="B271" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3241,12 +3439,356 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="76.85546875" customWidth="1"/>
+    <col min="2" max="2" width="110.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>369</v>
+      </c>
+      <c r="B19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>370</v>
+      </c>
+      <c r="B20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>373</v>
+      </c>
+      <c r="B21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>394</v>
+      </c>
+      <c r="B26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>397</v>
+      </c>
+      <c r="B27" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B31" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>387</v>
+      </c>
+      <c r="B35" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>389</v>
+      </c>
+      <c r="B36" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>391</v>
+      </c>
+      <c r="B37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>392</v>
+      </c>
+      <c r="B38" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>401</v>
+      </c>
+      <c r="B42" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>402</v>
+      </c>
+      <c r="B43" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>403</v>
+      </c>
+      <c r="B45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>410</v>
+      </c>
+      <c r="B47" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>412</v>
+      </c>
+      <c r="B48" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>413</v>
+      </c>
+      <c r="B50" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>415</v>
+      </c>
+      <c r="B52" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>418</v>
+      </c>
+      <c r="B53" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>423</v>
+      </c>
+      <c r="B57" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="436">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -441,9 +441,6 @@
     <t>clickActiveBtn_Status_underListView_610</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Go Back"]').parentElement.nextElementSibling.firstChild.innerText</t>
-  </si>
-  <si>
     <t>followUpDetailsScreen_610</t>
   </si>
   <si>
@@ -1278,9 +1275,6 @@
     <t>Murabha_LoginFieldName</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Validate format</t>
   </si>
   <si>
@@ -1291,6 +1285,45 @@
   </si>
   <si>
     <t>document.querySelector('label[ng-reflect-text="SCR.FOLLOWUPDTL.CALLED_WHEN.TO"]').parentElement.nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Go Back"]').parentElement.nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>FollowUp Details</t>
+  </si>
+  <si>
+    <t>searchBtnFollowUpDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-search"]')[1]</t>
+  </si>
+  <si>
+    <t>App Data Entery Living Expenses</t>
+  </si>
+  <si>
+    <t>livingExpenses_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg5"]')</t>
+  </si>
+  <si>
+    <t>murabha_SaveBtn_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-save"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Spouse Salary.TOOLTIP"]').parentElement.nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>spouseSalary</t>
+  </si>
+  <si>
+    <t>get attribute</t>
+  </si>
+  <si>
+    <t>murabha_SaveBtn</t>
   </si>
 </sst>
 </file>
@@ -1753,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B271"/>
+  <dimension ref="A1:B273"/>
   <sheetViews>
-    <sheetView topLeftCell="B247" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A266" sqref="A266:B268"/>
+    <sheetView topLeftCell="A257" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1783,10 +1816,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2289,1146 +2322,1162 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B83" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" t="s">
         <v>154</v>
-      </c>
-      <c r="B93" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" t="s">
         <v>164</v>
-      </c>
-      <c r="B100" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103" t="s">
         <v>168</v>
-      </c>
-      <c r="B103" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B105" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
+        <v>180</v>
+      </c>
+      <c r="B111" t="s">
         <v>181</v>
-      </c>
-      <c r="B111" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B112" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B115" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116" t="s">
         <v>191</v>
-      </c>
-      <c r="B116" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B118" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B119" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B120" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
+        <v>201</v>
+      </c>
+      <c r="B125" t="s">
         <v>202</v>
-      </c>
-      <c r="B125" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B126" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B128" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B129" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B130" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="21" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B131" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="24" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B132" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B133" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B134" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
+        <v>220</v>
+      </c>
+      <c r="B137" t="s">
         <v>221</v>
-      </c>
-      <c r="B137" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B138" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B139" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B140" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>228</v>
+      </c>
+      <c r="B142" t="s">
         <v>229</v>
-      </c>
-      <c r="B142" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B146" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B147" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B148" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B149" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B150" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B151" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B152" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B153" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B157" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B158" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B159" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B160" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B161" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B162" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B163" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B164" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B165" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B166" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B167" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B168" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B169" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B170" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B171" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B172" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B173" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B177" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B178" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B182" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B183" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
+        <v>290</v>
+      </c>
+      <c r="B184" t="s">
         <v>291</v>
-      </c>
-      <c r="B184" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B189" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B190" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B191" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B192" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B193" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B194" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B195" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B196" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B197" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B198" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B199" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B200" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B201" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B202" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B203" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B204" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B205" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B206" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B210" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
+        <v>335</v>
+      </c>
+      <c r="B211" t="s">
         <v>336</v>
-      </c>
-      <c r="B211" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B215" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B216" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
+        <v>341</v>
+      </c>
+      <c r="B217" t="s">
         <v>342</v>
-      </c>
-      <c r="B217" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
+        <v>343</v>
+      </c>
+      <c r="B218" t="s">
         <v>344</v>
-      </c>
-      <c r="B218" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
+        <v>345</v>
+      </c>
+      <c r="B219" s="10" t="s">
         <v>346</v>
-      </c>
-      <c r="B219" s="10" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B220" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
+        <v>349</v>
+      </c>
+      <c r="B221" t="s">
         <v>350</v>
-      </c>
-      <c r="B221" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
+        <v>351</v>
+      </c>
+      <c r="B222" t="s">
         <v>352</v>
-      </c>
-      <c r="B222" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
+        <v>353</v>
+      </c>
+      <c r="B223" t="s">
         <v>354</v>
-      </c>
-      <c r="B223" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
+        <v>355</v>
+      </c>
+      <c r="B224" t="s">
         <v>356</v>
-      </c>
-      <c r="B224" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B225" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
+        <v>359</v>
+      </c>
+      <c r="B226" t="s">
         <v>360</v>
-      </c>
-      <c r="B226" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
+        <v>361</v>
+      </c>
+      <c r="B227" t="s">
         <v>362</v>
-      </c>
-      <c r="B227" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
+        <v>363</v>
+      </c>
+      <c r="B228" t="s">
         <v>364</v>
-      </c>
-      <c r="B228" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
+        <v>365</v>
+      </c>
+      <c r="B229" t="s">
         <v>366</v>
-      </c>
-      <c r="B229" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B230" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
+        <v>369</v>
+      </c>
+      <c r="B231" t="s">
         <v>370</v>
-      </c>
-      <c r="B231" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B232" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
+        <v>373</v>
+      </c>
+      <c r="B233" t="s">
         <v>374</v>
-      </c>
-      <c r="B233" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B234" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
+        <v>377</v>
+      </c>
+      <c r="B235" t="s">
         <v>378</v>
-      </c>
-      <c r="B235" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
+        <v>379</v>
+      </c>
+      <c r="B236" t="s">
         <v>380</v>
-      </c>
-      <c r="B236" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
+        <v>393</v>
+      </c>
+      <c r="B237" t="s">
         <v>394</v>
-      </c>
-      <c r="B237" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B238" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
+        <v>382</v>
+      </c>
+      <c r="B242" t="s">
         <v>383</v>
-      </c>
-      <c r="B242" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B246" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B247" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B248" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
+        <v>391</v>
+      </c>
+      <c r="B249" t="s">
         <v>392</v>
-      </c>
-      <c r="B249" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B253" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B254" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
+        <v>402</v>
+      </c>
+      <c r="B256" t="s">
         <v>403</v>
-      </c>
-      <c r="B256" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B258" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B259" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
+        <v>412</v>
+      </c>
+      <c r="B261" t="s">
         <v>413</v>
-      </c>
-      <c r="B261" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
+        <v>414</v>
+      </c>
+      <c r="B263" t="s">
         <v>415</v>
-      </c>
-      <c r="B263" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B264" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B268" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="B271" t="s">
         <v>420</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>425</v>
+      </c>
+      <c r="B272" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>405</v>
+      </c>
+      <c r="B273" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -3439,21 +3488,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="76.85546875" customWidth="1"/>
-    <col min="2" max="2" width="110.5703125" customWidth="1"/>
+    <col min="2" max="2" width="120.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3461,331 +3510,394 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" t="s">
         <v>342</v>
-      </c>
-      <c r="B6" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" t="s">
         <v>344</v>
-      </c>
-      <c r="B7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>346</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" t="s">
         <v>350</v>
-      </c>
-      <c r="B10" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" t="s">
         <v>352</v>
-      </c>
-      <c r="B11" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" t="s">
         <v>354</v>
-      </c>
-      <c r="B12" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" t="s">
         <v>356</v>
-      </c>
-      <c r="B13" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" t="s">
         <v>360</v>
-      </c>
-      <c r="B15" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" t="s">
         <v>362</v>
-      </c>
-      <c r="B16" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" t="s">
         <v>364</v>
-      </c>
-      <c r="B17" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" t="s">
         <v>366</v>
-      </c>
-      <c r="B18" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B20" t="s">
         <v>370</v>
-      </c>
-      <c r="B20" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" t="s">
         <v>374</v>
-      </c>
-      <c r="B22" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>377</v>
+      </c>
+      <c r="B24" t="s">
         <v>378</v>
-      </c>
-      <c r="B24" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>379</v>
+      </c>
+      <c r="B25" t="s">
         <v>380</v>
-      </c>
-      <c r="B25" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26" t="s">
         <v>394</v>
-      </c>
-      <c r="B26" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="B32" t="s">
         <v>383</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="8" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>387</v>
-      </c>
-      <c r="B35" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B36" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B37" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>390</v>
+      </c>
+      <c r="B38" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>391</v>
+      </c>
+      <c r="B39" t="s">
         <v>392</v>
       </c>
-      <c r="B38" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>401</v>
-      </c>
-      <c r="B42" t="s">
-        <v>399</v>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="8" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>400</v>
+      </c>
+      <c r="B43" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>401</v>
+      </c>
+      <c r="B44" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>402</v>
       </c>
-      <c r="B43" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="B46" t="s">
         <v>403</v>
-      </c>
-      <c r="B45" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>410</v>
-      </c>
-      <c r="B47" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>409</v>
+      </c>
+      <c r="B48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>411</v>
+      </c>
+      <c r="B49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>412</v>
       </c>
-      <c r="B48" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="B51" t="s">
         <v>413</v>
-      </c>
-      <c r="B50" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>415</v>
-      </c>
-      <c r="B52" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="8" t="s">
+      <c r="B54" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>423</v>
-      </c>
-      <c r="B57" t="s">
-        <v>422</v>
+      <c r="B58" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>425</v>
+      </c>
+      <c r="B62" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>405</v>
+      </c>
+      <c r="B63" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>428</v>
+      </c>
+      <c r="B68" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>430</v>
+      </c>
+      <c r="B69" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>433</v>
+      </c>
+      <c r="B73" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>435</v>
+      </c>
+      <c r="B74" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="482">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1324,13 +1324,151 @@
   </si>
   <si>
     <t>murabha_SaveBtn</t>
+  </si>
+  <si>
+    <t>Ijara AppDataCheck Insurance Info</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg10"]')</t>
+  </si>
+  <si>
+    <t>insuranceInfo_Screen_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>viewBtn_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="insQtId"]')</t>
+  </si>
+  <si>
+    <t>insuranceQuatationID_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="insuranceYear"]')</t>
+  </si>
+  <si>
+    <t>insuranceYear_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Depreciation (%)"]')</t>
+  </si>
+  <si>
+    <t>depreciation_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Asset Price"]')</t>
+  </si>
+  <si>
+    <t>assertPrice_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Rate Per Asset"]')</t>
+  </si>
+  <si>
+    <t>ratePerAssert_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Minimum Insurance Premium"]')</t>
+  </si>
+  <si>
+    <t>miniumInsurancePremium_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Base Insurance Premium"]')</t>
+  </si>
+  <si>
+    <t>baseInsurancePremium_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="VAT Premium"]')</t>
+  </si>
+  <si>
+    <t>VATPremium_610</t>
+  </si>
+  <si>
+    <t>NetPremium_610</t>
+  </si>
+  <si>
+    <t>App Data Entrey --- Customer Financial -- EmployementDetails</t>
+  </si>
+  <si>
+    <t>customerFinancials_Screen_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg4"]')</t>
+  </si>
+  <si>
+    <t>editBtn_610</t>
+  </si>
+  <si>
+    <t>addBtn_Under_customerEmployementDetails</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('[icon="pi pi-plus"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_NATURE.TOOLTIP"]').parentElement.lastElementChild</t>
+  </si>
+  <si>
+    <t>natureOfEmployement_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_NATURE_PERIOD.TOOLTIP"]').parentElement.lastElementChild</t>
+  </si>
+  <si>
+    <t>employmentPeriod_610</t>
+  </si>
+  <si>
+    <t>employerName_610</t>
+  </si>
+  <si>
+    <t>employeID_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="FORM.DATE_OF_JOINING.TOOLTIP"]').parentElement.nextElementSibling</t>
+  </si>
+  <si>
+    <t>dateOfJoining_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMPLOYMENT_TYPE.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>employementType_61</t>
+  </si>
+  <si>
+    <t>totalExperience_610</t>
+  </si>
+  <si>
+    <t>shareHolderPercentage_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_NAME_ANY.TOOLTIP"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_ID.TOOLTIP"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.SHARE_HOLDER_PERCENTAGE.T"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.TOTAL_EXPERIENCE.TOOLTIP"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>backBtn_Index_UnderCustomerDetails_610</t>
+  </si>
+  <si>
+    <t>selectTodayDateIn_610</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,6 +1487,12 @@
       <color rgb="FF202124"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1395,7 +1539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1409,6 +1553,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1786,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B273"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
-    <sheetView topLeftCell="A257" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="B191" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208:B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3480,6 +3625,104 @@
         <v>407</v>
       </c>
     </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>438</v>
+      </c>
+      <c r="B278" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>440</v>
+      </c>
+      <c r="B279" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>442</v>
+      </c>
+      <c r="B280" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>444</v>
+      </c>
+      <c r="B281" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>446</v>
+      </c>
+      <c r="B282" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>448</v>
+      </c>
+      <c r="B283" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>450</v>
+      </c>
+      <c r="B284" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>452</v>
+      </c>
+      <c r="B285" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>454</v>
+      </c>
+      <c r="B286" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>456</v>
+      </c>
+      <c r="B287" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>457</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3488,16 +3731,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="76.85546875" customWidth="1"/>
-    <col min="2" max="2" width="120.85546875" customWidth="1"/>
+    <col min="2" max="2" width="124.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3900,7 +4143,162 @@
         <v>403</v>
       </c>
     </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>459</v>
+      </c>
+      <c r="B78" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>461</v>
+      </c>
+      <c r="B79" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>462</v>
+      </c>
+      <c r="B80" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>465</v>
+      </c>
+      <c r="B81" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>467</v>
+      </c>
+      <c r="B82" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>468</v>
+      </c>
+      <c r="B83" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>469</v>
+      </c>
+      <c r="B84" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>471</v>
+      </c>
+      <c r="B85" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>473</v>
+      </c>
+      <c r="B86" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>475</v>
+      </c>
+      <c r="B87" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>474</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>402</v>
+      </c>
+      <c r="B89" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>480</v>
+      </c>
+      <c r="B92" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>481</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>334</v>
+      </c>
+      <c r="B97" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>335</v>
+      </c>
+      <c r="B98" t="s">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="515">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1462,13 +1462,112 @@
   </si>
   <si>
     <t>selectTodayDateIn_610</t>
+  </si>
+  <si>
+    <t>LIstView</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentTypeDesc"] span')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employerName"] span')</t>
+  </si>
+  <si>
+    <t>Li_NatureOfEmployement</t>
+  </si>
+  <si>
+    <t>LI_EmployerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentStatusDesc"] span')</t>
+  </si>
+  <si>
+    <t>Li_EmploymentStatus</t>
+  </si>
+  <si>
+    <t>backBtn_Index01</t>
+  </si>
+  <si>
+    <t>Quotation Info</t>
+  </si>
+  <si>
+    <t>document.querySelector("ion-segment-button[id='seg9']")</t>
+  </si>
+  <si>
+    <t>View Button</t>
+  </si>
+  <si>
+    <t>document.querySelector("button[ng-reflect-text='View']")</t>
+  </si>
+  <si>
+    <t>GoBack Button</t>
+  </si>
+  <si>
+    <t>document.querySelector("button[ng-reflect-text='Go Back']")</t>
+  </si>
+  <si>
+    <t>InsuranceCompanyBpId</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="insuranceCompanyBpId"]')</t>
+  </si>
+  <si>
+    <t>BasePremiumAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="basePremiumAmount"]')</t>
+  </si>
+  <si>
+    <t>VatOnBasePremiumAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="vatOnBasePremiumAmount"]')</t>
+  </si>
+  <si>
+    <t>NetBasePremiumAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="netBasePremiumAmount"]')</t>
+  </si>
+  <si>
+    <t>totalDiscountAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalDiscountAmount"]')</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="Expiry Date.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>QuoteReferenceNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="quoteReferenceNo"]')</t>
+  </si>
+  <si>
+    <t>Quotation Info screen App Data Check</t>
+  </si>
+  <si>
+    <t>searchBTn_610_Mu</t>
+  </si>
+  <si>
+    <t>enter_searchBtn_610_Mu</t>
+  </si>
+  <si>
+    <t>misMatching_Data_610_Mu</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-search"]')[0]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1488,14 +1587,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1526,6 +1619,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1539,7 +1638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1553,7 +1652,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1933,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B289"/>
   <sheetViews>
-    <sheetView topLeftCell="B191" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208:B211"/>
+    <sheetView topLeftCell="B70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3714,11 +3816,14 @@
       <c r="A288" t="s">
         <v>457</v>
       </c>
-      <c r="B288" s="11" t="s">
+      <c r="B288" s="10" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="289" spans="2:2">
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>489</v>
+      </c>
       <c r="B289" t="s">
         <v>171</v>
       </c>
@@ -3731,10 +3836,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4297,6 +4402,144 @@
         <v>336</v>
       </c>
     </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>485</v>
+      </c>
+      <c r="B102" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>486</v>
+      </c>
+      <c r="B103" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>488</v>
+      </c>
+      <c r="B104" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B119" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B120" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B121" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="Ijara_AD_DocumentDetails" sheetId="2" r:id="rId2"/>
     <sheet name="Murabha_Module" sheetId="3" r:id="rId3"/>
+    <sheet name="Tawarruq_Module" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="522">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1455,9 +1456,6 @@
     <t>document.querySelector('ion-label[ng-reflect-text="FORM.SHARE_HOLDER_PERCENTAGE.T"]').nextElementSibling.firstChild</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="FORM.TOTAL_EXPERIENCE.TOOLTIP"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
     <t>backBtn_Index_UnderCustomerDetails_610</t>
   </si>
   <si>
@@ -1561,6 +1559,30 @@
   </si>
   <si>
     <t>document.querySelectorAll('button[icon="pi pi-search"]')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalExperience"] input')</t>
+  </si>
+  <si>
+    <t>click_EmployerName_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text=\"FORM.EMP_NAME_ANY.TOOLTIP\"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employerName"]')</t>
+  </si>
+  <si>
+    <t>TA_employerName_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('th[ng-reflect-field="recStatus"]')[1]</t>
+  </si>
+  <si>
+    <t>TA_Status_610</t>
+  </si>
+  <si>
+    <t>Employment Details App Data Entry</t>
   </si>
 </sst>
 </file>
@@ -2035,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B289"/>
   <sheetViews>
-    <sheetView topLeftCell="B70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3822,7 +3844,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B289" t="s">
         <v>171</v>
@@ -3836,10 +3858,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4338,7 +4360,7 @@
         <v>474</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4367,7 +4389,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B92" t="s">
         <v>171</v>
@@ -4375,168 +4397,176 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="9" t="s">
+      <c r="A95" t="s">
+        <v>515</v>
+      </c>
+      <c r="B95" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="9" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>334</v>
-      </c>
-      <c r="B97" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>334</v>
+      </c>
+      <c r="B98" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>335</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="11" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>485</v>
-      </c>
-      <c r="B102" t="s">
-        <v>483</v>
+    <row r="101" spans="1:2">
+      <c r="A101" s="11" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B103" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B104" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="12" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>491</v>
+      <c r="B105" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="12" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B119" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B120" t="s">
-        <v>407</v>
+        <v>513</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B121" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B122" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4544,4 +4574,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8040" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8040" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="Ijara_AD_DocumentDetails" sheetId="2" r:id="rId2"/>
     <sheet name="Murabha_Module" sheetId="3" r:id="rId3"/>
     <sheet name="Tawarruq_Module" sheetId="4" r:id="rId4"/>
+    <sheet name="Tawarruq_ADEntry_Income" sheetId="5" r:id="rId5"/>
+    <sheet name="Tawarruq_ADEntry_LivingExpense" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="724">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1583,6 +1585,612 @@
   </si>
   <si>
     <t>Employment Details App Data Entry</t>
+  </si>
+  <si>
+    <t>DataCheckIncome_FieldName</t>
+  </si>
+  <si>
+    <t>customerInfoTitle</t>
+  </si>
+  <si>
+    <t>customerFinancialsTabEyeBtn</t>
+  </si>
+  <si>
+    <t>incomeSaveBtn</t>
+  </si>
+  <si>
+    <t>incomeBackBtn</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-arrow-left"]')[1]</t>
+  </si>
+  <si>
+    <t>incomeScreenTitle</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-arrow-left"]')[1].parentElement</t>
+  </si>
+  <si>
+    <t>employementTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="employmentType"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>employementTypeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="employmentType"]')</t>
+  </si>
+  <si>
+    <t>lumpsumAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="lumpsumAmount"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>lumpsumAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="lumpsumAmount"]')</t>
+  </si>
+  <si>
+    <t>pensionAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="pensionAmount"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>pensionAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="pensionAmount"]')</t>
+  </si>
+  <si>
+    <t>financialYearLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Financial Year"] label')</t>
+  </si>
+  <si>
+    <t>financialYearInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Financial Year"] input')</t>
+  </si>
+  <si>
+    <t>filingDateLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Filing Date"] label')</t>
+  </si>
+  <si>
+    <t>filingDateInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Filing Date"] input')</t>
+  </si>
+  <si>
+    <t>incomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[0]</t>
+  </si>
+  <si>
+    <t>incomeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('tbody td ion-select')[0]</t>
+  </si>
+  <si>
+    <t>frequencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[1]</t>
+  </si>
+  <si>
+    <t>frequencyDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('tbody td ion-select')[1]</t>
+  </si>
+  <si>
+    <t>amountLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[2]</t>
+  </si>
+  <si>
+    <t>amountInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAmount"]')</t>
+  </si>
+  <si>
+    <t>defined%_Label</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[3]</t>
+  </si>
+  <si>
+    <t>defined%_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeDefPercentage"]')</t>
+  </si>
+  <si>
+    <t>adjusted%_Label</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[4]</t>
+  </si>
+  <si>
+    <t>adjusted%_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAdjustedPercent"]')</t>
+  </si>
+  <si>
+    <t>amountConsideredLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[5]</t>
+  </si>
+  <si>
+    <t>amountConsideredInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAmountConsidered"]')</t>
+  </si>
+  <si>
+    <t>actionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[6]</t>
+  </si>
+  <si>
+    <t>actionAddBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAmountConsidered"]').parentElement.nextSibling.firstChild</t>
+  </si>
+  <si>
+    <t>actionDeleteBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-button[color="danger"]')</t>
+  </si>
+  <si>
+    <t>totalIncomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncome"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>totalIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncome"]')</t>
+  </si>
+  <si>
+    <t>totalIncomeConsideredLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncomeConsidered"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>totalIncomeConsideredInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncomeConsidered"]')</t>
+  </si>
+  <si>
+    <t>salaryCreditedToBankLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[2].parentElement.parentElement.previousElementSibling</t>
+  </si>
+  <si>
+    <t>salaryCreditedToBankDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[2]</t>
+  </si>
+  <si>
+    <t>bankNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[ng-reflect-placeholder="Bank Name"]').parentElement.parentElement.previousElementSibling</t>
+  </si>
+  <si>
+    <t>bankNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[ng-reflect-placeholder="Bank Name"]')</t>
+  </si>
+  <si>
+    <t>branchNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[3].parentElement.parentElement.previousElementSibling</t>
+  </si>
+  <si>
+    <t>branchNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[3]</t>
+  </si>
+  <si>
+    <t>deductionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[0]</t>
+  </si>
+  <si>
+    <t>deductionDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('tbody[class="p-element p-datatable-tbody"]')[6].querySelectorAll('ion-select')[0]</t>
+  </si>
+  <si>
+    <t>deductionFrequencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[1]</t>
+  </si>
+  <si>
+    <t>deductionFrequencyDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('tbody[class="p-element p-datatable-tbody"]')[6].querySelectorAll('ion-select')[1]</t>
+  </si>
+  <si>
+    <t>deductionAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[2]</t>
+  </si>
+  <si>
+    <t>deductionAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAmount"]')</t>
+  </si>
+  <si>
+    <t>deductionDef%_Label</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[3]</t>
+  </si>
+  <si>
+    <t>deductionDef%_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionDefPercentage"]')</t>
+  </si>
+  <si>
+    <t>deductionAdj%_Label</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[4]</t>
+  </si>
+  <si>
+    <t>deductionAdj%_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAdjustedPercent"]')</t>
+  </si>
+  <si>
+    <t>deductionConsideredLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[5]</t>
+  </si>
+  <si>
+    <t>deductionConsideredInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAmountConsidered"]')</t>
+  </si>
+  <si>
+    <t>deductionActionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[6]</t>
+  </si>
+  <si>
+    <t>deductionActionAddBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAmountConsidered"]').parentElement.nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>totalDeductionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeduction"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>totalDeductionInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeduction"]')</t>
+  </si>
+  <si>
+    <t>totalDeductionConsideredLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeductionConsidered"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>totalDeductionConsideredInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeductionConsidered"]')</t>
+  </si>
+  <si>
+    <t>currencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeductionConsidered"]').parentElement.nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>currencyDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-row[class="md hydrated"]')[4].querySelector('ion-col ion-select')</t>
+  </si>
+  <si>
+    <t>successToastMsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast').shadowRoot.querySelector('div[part="message"]')</t>
+  </si>
+  <si>
+    <t>successToastCloseBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast').shadowRoot.querySelector('button[part="button"]')</t>
+  </si>
+  <si>
+    <t>customerEmployementListSection</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[iconpos="left"]').parentElement</t>
+  </si>
+  <si>
+    <t>customerEmployementEyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[iconpos="left"]').parentElement.parentElement.nextElementSibling.querySelector('button[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>customerEmployementScreenTitle</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-title[mode="md"]')[4]</t>
+  </si>
+  <si>
+    <t>customerEmployementScreenBackBtn</t>
+  </si>
+  <si>
+    <t>incomeSectionTitle</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalIncomeConsidered"]').offsetParent.offsetParent.offsetParent.offsetParent.parentElement.querySelector('ion-title')</t>
+  </si>
+  <si>
+    <t>incomeSectionEyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalIncomeConsidered"]').offsetParent.parentElement.querySelector('button')</t>
+  </si>
+  <si>
+    <t>incomeSectionTableValue1</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalIncomeConsidered"]').offsetParent.parentElement.querySelectorAll('td[class="ng-star-inserted"]')[1]</t>
+  </si>
+  <si>
+    <t>customerFinancialsTabBackBtn</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-arrow-left"]')[0]</t>
+  </si>
+  <si>
+    <t>listview_NatureOfEmployment</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentType"] span')</t>
+  </si>
+  <si>
+    <t>listview_NetIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalIncomeConsidered"] span')</t>
+  </si>
+  <si>
+    <t>listview_NetDeduction</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalDeductionConsidered"] span')</t>
+  </si>
+  <si>
+    <t>listview_ConsideredIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="consideredIncome"] span')</t>
+  </si>
+  <si>
+    <t>listview_Currency</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currencyCode"] span')</t>
+  </si>
+  <si>
+    <t>listview_Status</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currencyCode"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>incomeSectionSearchbox</t>
+  </si>
+  <si>
+    <t>searchResult</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentType"]').offsetParent.offsetParent.offsetParent.offsetParent.querySelector('span[class="p-paginator-current ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>exportPDF</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="PDF"]')</t>
+  </si>
+  <si>
+    <t>exportXLS</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="XLS"]')</t>
+  </si>
+  <si>
+    <t>customerFinancialsTab</t>
+  </si>
+  <si>
+    <t>document.getElementById("seg4")</t>
+  </si>
+  <si>
+    <t>customerFinancialsPencilEditBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector("[ng-reflect-text='Edit']")</t>
+  </si>
+  <si>
+    <t>livingExpense</t>
+  </si>
+  <si>
+    <t>document.querySelector('#seg5')</t>
+  </si>
+  <si>
+    <t>AddButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('#pr_id_6 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; div.col-1.flex.justify-content-start &gt; button')</t>
+  </si>
+  <si>
+    <t>saveButton</t>
+  </si>
+  <si>
+    <t>BackButton</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("p-element p-button-secondary p-button-sm p-button-raised w-70 cmnbtn p-button p-component p-button-icon-only")[0]</t>
+  </si>
+  <si>
+    <t>AddbuttonunderExpenseInfo</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("p-element p-button-sm p-button-info primelistbtn p-button p-component p-button-icon-only")[1]</t>
+  </si>
+  <si>
+    <t>DeleteButton</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("p-element p-button-sm p-button-danger primelistbtn p-button p-component p-button-icon-only")[0]</t>
+  </si>
+  <si>
+    <t>ExpenseType</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("headertemp")[7]</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("headertemp")[8]</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("ng-untouched ng-pristine ng-valid ios in-item hydrated ion-untouched ion-pristine ion-valid")[3]</t>
+  </si>
+  <si>
+    <t>CustomerNameInput</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("sc-ion-select-popover-ios sc-ion-label-ios-h sc-ion-label-ios-s ios hydrated")[1]</t>
+  </si>
+  <si>
+    <t>ExpenseTypeInput</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("w-full ng-untouched ng-pristine ng-valid ios in-item hydrated ion-untouched ion-pristine ion-valid")[0]</t>
+  </si>
+  <si>
+    <t>ExpenseTypeInput_Asset</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("select-interface-option ng-star-inserted md sc-ion-select-popover-ios item ios item-lines-default item-fill-none in-list ion-activatable ion-focusable hydrated item-label")[1]</t>
+  </si>
+  <si>
+    <t>AmountInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="expenseAmount"] input')</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("p-checkbox-box p-component")[0]</t>
+  </si>
+  <si>
+    <t>TotalLivingExpense</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("fldouterspacing ng-star-inserted md hydrated")[2]</t>
+  </si>
+  <si>
+    <t>AccereditedCost</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("fldouterspacing ng-star-inserted md hydrated")[3]</t>
+  </si>
+  <si>
+    <t>PleaseFillMandatoryField</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast[role="status"]').shadowRoot.querySelector('div[part="message"]').textContent</t>
+  </si>
+  <si>
+    <t>RequiredField</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-msg="VAL.REQUIRED"]')</t>
+  </si>
+  <si>
+    <t>EditIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-pencil"]')</t>
+  </si>
+  <si>
+    <t>ExpectedCostOfLiving</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Expected Cost Of Living.TOOLTI"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>MinimumCostOfLiving</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Minimum Living Cost1.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>Tawarruq_AppDataEntrylivingExpensefield</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +2218,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1647,8 +2255,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1656,11 +2276,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1678,6 +2313,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4578,10 +5216,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4619,6 +5257,904 @@
         <v>519</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>678</v>
+      </c>
+      <c r="B9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>680</v>
+      </c>
+      <c r="B10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="173.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="200.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>722</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8040" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8040" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,16 @@
     <sheet name="Tawarruq_Module" sheetId="4" r:id="rId4"/>
     <sheet name="Tawarruq_ADEntry_Income" sheetId="5" r:id="rId5"/>
     <sheet name="Tawarruq_ADEntry_LivingExpense" sheetId="6" r:id="rId6"/>
+    <sheet name="TA_CommodityMaker_AdhocPayment" sheetId="7" r:id="rId7"/>
+    <sheet name="TA_CommondityMaker_Configuratio" sheetId="8" r:id="rId8"/>
+    <sheet name="TA_Offering_InterstRateStructur" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="814">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -540,21 +543,9 @@
     <t>backBtn_UnderCustomerDetails_610</t>
   </si>
   <si>
-    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.ISSUE_DATE.TOOLTIP"').firstElementChild.firstElementChild.querySelector('p-calendar')</t>
-  </si>
-  <si>
-    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.EXPIRY_DATE.TOOLTIP"').firstElementChild.firstElementChild.lastChild</t>
-  </si>
-  <si>
-    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.ISSUE_DATE.TOOLTIP"').firstElementChild.firstElementChild.querySelector('button')</t>
-  </si>
-  <si>
     <t>getAtribute_InIssueDate_610</t>
   </si>
   <si>
-    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.EXPIRY_DATE.TOOLTIP"').firstElementChild.firstElementChild.querySelector('button')</t>
-  </si>
-  <si>
     <t>getAtribute_InExpiryeDate_610</t>
   </si>
   <si>
@@ -2191,13 +2182,295 @@
   </si>
   <si>
     <t>Tawarruq_AppDataEntrylivingExpensefield</t>
+  </si>
+  <si>
+    <t>Tawarruq_CommodityMaker_AdhocPayment</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="loPayRcptType"]')</t>
+  </si>
+  <si>
+    <t>TransactionType_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="amountType"]')</t>
+  </si>
+  <si>
+    <t>TransactionAgainst_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="tranRefNo"]')</t>
+  </si>
+  <si>
+    <t>ReferenceNumber_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="amount"]')</t>
+  </si>
+  <si>
+    <t>PaidAmount_610</t>
+  </si>
+  <si>
+    <t>AdhocPayment_610</t>
+  </si>
+  <si>
+    <t>document.getElementById("seg7")</t>
+  </si>
+  <si>
+    <t>Tawarruq_CommodityMaker_Configuration</t>
+  </si>
+  <si>
+    <t>Financial Details</t>
+  </si>
+  <si>
+    <t>loanTenure_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Loan Tenure.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Number Of Instalments.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Repay Frequency.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>RepayFrequency_610</t>
+  </si>
+  <si>
+    <t>NumberOfInstalments_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Internal Rate Of Return.TOOLTI"]')</t>
+  </si>
+  <si>
+    <t>InternalRateOfReturn_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Total Loan Amount Financed.TOO"]')</t>
+  </si>
+  <si>
+    <t>TotalLoanAmountFinanced_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Average Account Balance.TOOLTI"]')</t>
+  </si>
+  <si>
+    <t>AverageAccountBalance_610</t>
+  </si>
+  <si>
+    <t>Facility Details</t>
+  </si>
+  <si>
+    <t>Classification_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="productCode"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="subProductCode"]')</t>
+  </si>
+  <si>
+    <t>product_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="schemeId"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="totalLoanAmountFinanced"]')</t>
+  </si>
+  <si>
+    <t>FD_LoanTenure_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="currencyId"]')</t>
+  </si>
+  <si>
+    <t>CurrencyId_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Eligible Income.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>EligibleIncome_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Insurance Amount.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>InsuranceAmount_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Pre Retirement EMI.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>PreRetirementEMI_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Post Retirement EMI.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>PostRetirementEMI_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Previous EMI.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>PreviousEMI_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Previous Outstanding.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>PreviousOutstanding_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Previous Net Realizable Value."]')</t>
+  </si>
+  <si>
+    <t>PreviousNetRealizable_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Pre Retirement Tenure.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>PreRetirementTenure_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Total Offer Amount.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>TotalOfferAmount_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Applicable LTV1.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>ApplicableLTV1_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Applicable LTV2.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>ApplicableLTV2_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Facility Details"]')</t>
+  </si>
+  <si>
+    <t>FacilityDetailsScreenScroll_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Finance Details"]')</t>
+  </si>
+  <si>
+    <t>FinanceDetailsScreenScroll_610</t>
+  </si>
+  <si>
+    <t>document.getElementById("seg1")</t>
+  </si>
+  <si>
+    <t>Configuration_610</t>
+  </si>
+  <si>
+    <t>Tawarruq_Offering_InterestRateStructure</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="periodDesc"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="interestRateType"]')</t>
+  </si>
+  <si>
+    <t>RateDefinition_610</t>
+  </si>
+  <si>
+    <t>InterestRate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="baseRate"]')</t>
+  </si>
+  <si>
+    <t>EffectiveRate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="originalRate"]')</t>
+  </si>
+  <si>
+    <t>BaseRate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="spreadRate"]')</t>
+  </si>
+  <si>
+    <t>SpreadRate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="capRate"]')</t>
+  </si>
+  <si>
+    <t>CapRate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="floorRate"]')</t>
+  </si>
+  <si>
+    <t>FloorRate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="multiplierValue"]')</t>
+  </si>
+  <si>
+    <t>RBPAdjuster_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="penaltyRate"]')</t>
+  </si>
+  <si>
+    <t>PenaltyRate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="penaltyFee"]')</t>
+  </si>
+  <si>
+    <t>PenaltyFee_610</t>
+  </si>
+  <si>
+    <t>OfferDetailsScreen_610</t>
+  </si>
+  <si>
+    <t>EditBtn_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-pencil"]')[0]</t>
+  </si>
+  <si>
+    <t>Installments</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="installmentperiod"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="instlamt"]')</t>
+  </si>
+  <si>
+    <t>InstallmentPeriod_610</t>
+  </si>
+  <si>
+    <t>InstallmentAmount_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.EXPIRY_DATE.TOOLTIP"').firstElementChild.querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.ISSUE_DATE.TOOLTIP"').firstElementChild.querySelector('p-calendar')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2206,16 +2479,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2295,7 +2590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2303,12 +2598,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2316,6 +2609,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2612,7 +2909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2695,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B289"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="B91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2723,10 +3020,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3202,7 +3499,7 @@
       <c r="A74" t="s">
         <v>130</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="15" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3210,7 +3507,7 @@
       <c r="A75" t="s">
         <v>131</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="15" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3232,7 +3529,7 @@
         <v>141</v>
       </c>
       <c r="B79" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3261,14 +3558,14 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B83" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3285,7 +3582,7 @@
         <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3322,15 +3619,15 @@
         <v>157</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>813</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>158</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>174</v>
+      <c r="B96" s="17" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3383,1106 +3680,1106 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B105" t="s">
-        <v>175</v>
+        <v>813</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
-        <v>177</v>
+        <v>812</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B111" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B112" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B113" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B114" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B115" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B116" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B118" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B119" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B120" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B121" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B125" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B126" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B127" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B128" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B129" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B130" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="21" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B131" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="24" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B132" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B133" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B134" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B137" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B138" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B139" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B140" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B142" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="8" t="s">
-        <v>230</v>
+      <c r="A144" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B146" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B147" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B148" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B149" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B150" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B151" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B152" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B153" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="8" t="s">
-        <v>247</v>
+      <c r="A155" s="6" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B158" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B159" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B160" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B161" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B162" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B163" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B164" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B165" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B166" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B167" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B168" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B169" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
+        <v>256</v>
+      </c>
+      <c r="B170" t="s">
         <v>260</v>
-      </c>
-      <c r="B170" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B171" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B172" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B173" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="8" t="s">
-        <v>282</v>
+      <c r="A175" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B177" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B178" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="8" t="s">
-        <v>287</v>
+      <c r="A180" s="6" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
+        <v>284</v>
+      </c>
+      <c r="B182" t="s">
         <v>288</v>
-      </c>
-      <c r="B182" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
+        <v>285</v>
+      </c>
+      <c r="B183" t="s">
         <v>289</v>
-      </c>
-      <c r="B183" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B184" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B189" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
+        <v>295</v>
+      </c>
+      <c r="B190" t="s">
         <v>299</v>
-      </c>
-      <c r="B190" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B191" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B192" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B193" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B194" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B195" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B196" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B197" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B198" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B199" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B200" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B201" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B202" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B203" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B204" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B205" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B206" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="9" t="s">
-        <v>333</v>
+      <c r="A208" s="7" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B210" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B211" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B215" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B216" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B217" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B218" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>345</v>
-      </c>
-      <c r="B219" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B220" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B221" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B222" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B223" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B224" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B225" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B226" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B227" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B228" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B229" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B230" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B231" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B232" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B233" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B234" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B235" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B236" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B237" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B238" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="8" t="s">
-        <v>381</v>
+      <c r="A240" s="6" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B242" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="8" t="s">
-        <v>384</v>
+      <c r="A244" s="6" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B246" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B247" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B248" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B249" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="8" t="s">
-        <v>397</v>
+      <c r="A251" s="6" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B253" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B254" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B256" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B258" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B259" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B261" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B263" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B264" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="8" t="s">
-        <v>419</v>
+      <c r="A266" s="6" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B268" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B272" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B273" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B278" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B279" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B280" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B281" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B282" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B283" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B284" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B285" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B286" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B287" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>457</v>
-      </c>
-      <c r="B288" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B289" t="s">
         <v>171</v>
@@ -4498,8 +4795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4510,7 +4807,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4518,495 +4815,495 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B11" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B15" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B16" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B18" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B19" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B21" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B22" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B23" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B25" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B26" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B27" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="8" t="s">
-        <v>381</v>
+      <c r="A30" s="6" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B32" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="8" t="s">
-        <v>384</v>
+      <c r="A34" s="6" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B36" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B37" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B38" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B39" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="8" t="s">
-        <v>397</v>
+      <c r="A41" s="6" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B43" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B44" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B46" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="8" t="s">
-        <v>419</v>
+      <c r="A56" s="6" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B58" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B62" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B63" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B68" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>426</v>
+      </c>
+      <c r="B69" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="B69" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="8" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B73" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B74" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B78" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B80" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B81" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B82" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B83" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B84" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B85" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B86" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B87" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>474</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>514</v>
+        <v>470</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B89" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5027,7 +5324,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B92" t="s">
         <v>171</v>
@@ -5035,7 +5332,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>116</v>
@@ -5043,169 +5340,169 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B95" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="9" t="s">
-        <v>333</v>
+      <c r="A96" s="7" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B99" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="11" t="s">
-        <v>481</v>
+      <c r="A101" s="9" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B103" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B104" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B105" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="12" t="s">
-        <v>509</v>
+      <c r="A107" s="10" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B120" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B121" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B122" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -5218,8 +5515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5230,7 +5527,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5238,39 +5535,39 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B9" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B10" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -5282,7 +5579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5293,672 +5590,672 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
-        <v>678</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
-        <v>680</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="14" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="14" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="14" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="14" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="14" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="14" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="14" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="14" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="14" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="14" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="14" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="14" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="14" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="14" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="14" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B36" s="12" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="14" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="14" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="14" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B39" s="12" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="14" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B40" s="12" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="14" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="14" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B42" s="12" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="14" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B43" s="12" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="14" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B44" s="12" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="14" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B45" s="12" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="14" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B46" s="12" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="14" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B47" s="12" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="14" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="14" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B49" s="12" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="14" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B50" s="12" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="14" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B51" s="12" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="14" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B52" s="12" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="14" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B53" s="12" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="14" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B54" s="12" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="14" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B55" s="12" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="14" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B56" s="12" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="14" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B57" s="12" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="14" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B58" s="12" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="14" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B59" s="12" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="14" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B60" s="12" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="14" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B61" s="12" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="14" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B62" s="12" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="14" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B63" s="12" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="14" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B64" s="12" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="14" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B65" s="12" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="14" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B66" s="12" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="14" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B67" s="12" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="14" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B68" s="12" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="14" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B69" s="12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="12" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="14" t="s">
+      <c r="B70" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="B68" s="14" t="s">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="12" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="14" t="s">
+      <c r="B71" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="14" t="s">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B72" s="12" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="14" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B73" s="12" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="14" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B74" s="12" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="14" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B75" s="12" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="14" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B76" s="12" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="14" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B77" s="12" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="14" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B78" s="12" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="14" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="12" t="s">
         <v>665</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B79" s="12" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="14" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B80" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="12" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="14" t="s">
+      <c r="B81" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="B79" s="14" t="s">
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="12" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="14" t="s">
+      <c r="B82" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="B80" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="14" t="s">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B83" s="12" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="14" t="s">
-        <v>674</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="14" t="s">
-        <v>676</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>677</v>
-      </c>
-    </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5969,8 +6266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5980,179 +6277,653 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>718</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="52.5703125" customWidth="1"/>
+    <col min="2" max="2" width="99.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="13" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>726</v>
+      </c>
+      <c r="B6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B7" t="s">
+        <v>727</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="77.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>683</v>
-      </c>
-    </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>685</v>
+      <c r="A3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B3" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>87</v>
+      <c r="A4" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>780</v>
+      </c>
+      <c r="B6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>733</v>
+      </c>
+      <c r="B7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>738</v>
+      </c>
+      <c r="B8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>737</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>740</v>
+      </c>
+      <c r="B10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B11" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>744</v>
+      </c>
+      <c r="B12" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>778</v>
+      </c>
+      <c r="B16" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>746</v>
+      </c>
+      <c r="B17" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>749</v>
+      </c>
+      <c r="B18" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>742</v>
+      </c>
+      <c r="B20" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>752</v>
+      </c>
+      <c r="B21" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>754</v>
+      </c>
+      <c r="B22" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>756</v>
+      </c>
+      <c r="B23" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>758</v>
+      </c>
+      <c r="B24" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>760</v>
+      </c>
+      <c r="B25" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>762</v>
+      </c>
+      <c r="B26" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>764</v>
+      </c>
+      <c r="B27" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>766</v>
+      </c>
+      <c r="B28" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>768</v>
+      </c>
+      <c r="B29" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>770</v>
+      </c>
+      <c r="B30" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>772</v>
+      </c>
+      <c r="B31" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>744</v>
+      </c>
+      <c r="B32" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>774</v>
+      </c>
+      <c r="B33" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>776</v>
+      </c>
+      <c r="B34" t="s">
+        <v>775</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="63" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B4" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>688</v>
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>690</v>
+      <c r="A6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B6" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>692</v>
+      <c r="A7" t="s">
+        <v>787</v>
+      </c>
+      <c r="B7" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
-        <v>693</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>694</v>
+      <c r="A8" t="s">
+        <v>789</v>
+      </c>
+      <c r="B8" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
-        <v>695</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>696</v>
+      <c r="A9" t="s">
+        <v>791</v>
+      </c>
+      <c r="B9" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
-        <v>697</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>698</v>
+      <c r="A10" t="s">
+        <v>793</v>
+      </c>
+      <c r="B10" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>700</v>
+      <c r="A11" t="s">
+        <v>795</v>
+      </c>
+      <c r="B11" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
-        <v>701</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>702</v>
+      <c r="A12" t="s">
+        <v>797</v>
+      </c>
+      <c r="B12" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>704</v>
+      <c r="A13" t="s">
+        <v>799</v>
+      </c>
+      <c r="B13" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>706</v>
+      <c r="A14" t="s">
+        <v>801</v>
+      </c>
+      <c r="B14" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="14" t="s">
-        <v>709</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>710</v>
+      <c r="A15" t="s">
+        <v>803</v>
+      </c>
+      <c r="B15" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>714</v>
+      <c r="A17" s="3" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
-        <v>715</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>716</v>
+      <c r="A19" t="s">
+        <v>810</v>
+      </c>
+      <c r="B19" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="14" t="s">
-        <v>721</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>722</v>
+      <c r="A20" t="s">
+        <v>811</v>
+      </c>
+      <c r="B20" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8040" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8040" tabRatio="599" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,19 @@
     <sheet name="TA_CommodityMaker_AdhocPayment" sheetId="7" r:id="rId7"/>
     <sheet name="TA_CommondityMaker_Configuratio" sheetId="8" r:id="rId8"/>
     <sheet name="TA_Offering_InterstRateStructur" sheetId="9" r:id="rId9"/>
+    <sheet name="Murabha_ContractSinging" sheetId="10" r:id="rId10"/>
+    <sheet name="Murabha_PurchasOrder" sheetId="11" r:id="rId11"/>
+    <sheet name="Murabha_UnderWriter_CustomerFin" sheetId="12" r:id="rId12"/>
+    <sheet name="Mu_Under_AdditionalCustInfo_610" sheetId="13" r:id="rId13"/>
+    <sheet name="_" sheetId="14" r:id="rId14"/>
+    <sheet name="Al_ADEntry_CustomerDetails_610" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1205">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -2464,13 +2470,1186 @@
   </si>
   <si>
     <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.ISSUE_DATE.TOOLTIP"').firstElementChild.querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_STATUS.TOOLTIP"')</t>
+  </si>
+  <si>
+    <t>Murabha_ContractSinging</t>
+  </si>
+  <si>
+    <t>ContractSingingAuthority</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="agreementSigningAuthority"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="totalFinanceAmount"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>OfferedAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="contractSigningDate"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>ContractSingingDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="contractValidity"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>ContractValidity</t>
+  </si>
+  <si>
+    <t>Mu_ContractSingingScreen</t>
+  </si>
+  <si>
+    <t>PoReferenceNumber_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="poRefno"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="poDate"]').querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>PurchasOrderDate_610</t>
+  </si>
+  <si>
+    <t>EstimatedPurchasDueDate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="delvDuedate"]').querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>AssertAvaliablity_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="isAssetAvailable"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="receiverName"]')</t>
+  </si>
+  <si>
+    <t>ReceiverName_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="discPercentage"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>DiscountPercentage_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="discAmt"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>Discountamount_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="istemaraFees"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>IstemaraFees_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="assetAmt"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>AssertPriceWithVat_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="netAmount"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>NetAmountPayableToDealer_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="assetId"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>AssertID_610</t>
+  </si>
+  <si>
+    <t>document.getElementById('seg1')</t>
+  </si>
+  <si>
+    <t>PurchaseOrder_CheckerScreen_610</t>
+  </si>
+  <si>
+    <t>Murabha_UnderWriter</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="financierDesc"]').parentElement.parentElement.nextElementSibling.querySelector('[ng-reflect-icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>viewBtn_FinancialCommitment_UnderCustomerFinancial_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="financeType"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="financierId"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>financialType_610</t>
+  </si>
+  <si>
+    <t>financialInstitution_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="sanctionAmount"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>sanctionAmount_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Interest Rate %"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>interstRate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Current Principal Balance"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>currentprincipalBalance_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Tenure (months).TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>TenureMonths_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="maturityDate"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>maturrityDate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Installment Amount"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>installmentAmount_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Amount Considered"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>amountConsidered_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="currencyCode"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>currency_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="dueDate"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>nextDuedate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="loanClosedDate"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>closeDate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="collateralId"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>collateralType_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="repaymentFrequency"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>frequency_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Last Payment Amount"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>lastPaymentAmount_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="lastPaymentDate"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>lastPaymentDate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="productName"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="loanStatus"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>facilityStatus_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Remaining Tenure (months)"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>remainingTenure_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="facilityOpenDate"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>sementDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="NPA CLASSIFICATION.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>NPAClassification_610</t>
+  </si>
+  <si>
+    <t>document.getElementById('seg5')</t>
+  </si>
+  <si>
+    <t>CustomerFinancialScreen_610</t>
+  </si>
+  <si>
+    <t>Murabha_AdditionalCustomerInfo</t>
+  </si>
+  <si>
+    <t>Customer Identification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="idType"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>IdType</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="idNumber"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>IdNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="dateOfIssue"]').querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>Issuuedate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="dateOfExpiry"]').querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="issuingAuthority"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>IssueAuthority</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="placeOfIssue"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>CountryOfIssuse</t>
+  </si>
+  <si>
+    <t>document.getElementById('seg4')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="idTypeDesc"]').parentElement.parentElement.nextElementSibling.querySelector('button')</t>
+  </si>
+  <si>
+    <t>AdditionalCustomerInfoScreen_610</t>
+  </si>
+  <si>
+    <t>CustomerIdentification_UnderadditionalCust_610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adderss Details </t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="addressTypeDesc"]').parentElement.parentElement.nextElementSibling.querySelector('button')</t>
+  </si>
+  <si>
+    <t>AdderssDetailsTab_610</t>
+  </si>
+  <si>
+    <t>mobile_number_primary</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_MOBILE_NUMBER_"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>address_type</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_TYPE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>address_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_STATUS.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>residential_or_ocupency_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.RES_STATUS.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>communication_address_toggle</t>
+  </si>
+  <si>
+    <t>document.getElementsByTagName('ion-toggle')[0]</t>
+  </si>
+  <si>
+    <t>location_category</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Location Category.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>address_line1</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_1.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>address_line1_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_1.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>address_line1_arabic</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Address Line 1 in Arabic.TOOLT"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>address_line2</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_2.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>address_line2_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_2.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>address_line2_arabic</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Address Line 2 In Arabic.TOOLT"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.COUNTRY_CODE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>province_id</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PROVINCE_ID.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="City.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>district_name</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.DIST_NAME.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>district_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.DIST_NAME.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>zip_code</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ZIPCODE.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>zip_code_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ZIPCODE.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>po_box_number</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PO_BOX.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>po_box_number_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PO_BOX.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>mobile_number_primary_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CUSTOMERDETAILS_MOBILE_NUMBER_"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>duration_on_stay</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Duration of Stay.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>duration_on_stay_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Duration of Stay.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>latitude_details_of_the_address</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LAT_ADD.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>latitude_details_of_the_address_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LAT_ADD.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>longitude_details_of_the_address</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LONG_ADD.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>longitude_details_of_the_address_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LONG_ADD.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDMARK.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>landmark_mandatory_verifcation</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDMARK.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>occupency_date</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-calendar input')</t>
+  </si>
+  <si>
+    <t>occupency_date_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Occupancy date"] span')</t>
+  </si>
+  <si>
+    <t>landlord_name</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_NAME.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>landlord_name_Mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_NAME.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>landlord_mobile_number</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_MOB.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>landlord_mobile_number_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_MOB.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>rent_amount</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.RENT_AMT.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>rent_amount_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.RENT_AMT.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>frequency_of_rent</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Frequency of rent"]+ion-select')</t>
+  </si>
+  <si>
+    <t>address_line_1_special_character_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="SCR.ADD_LINE_1"]+div ion-badge').textContent</t>
+  </si>
+  <si>
+    <t>addressdetails_status_toggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-name="recStatus"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>addressdetails_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-name="recStatus"] ion-toggle').getAttribute('aria-checked')</t>
+  </si>
+  <si>
+    <t>address_details__record_search_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[class="p-datatable-header ng-star-inserted"] input[mode="ios"]')</t>
+  </si>
+  <si>
+    <t>list_view_search_input_box</t>
+  </si>
+  <si>
+    <t>customerDetailsTab</t>
+  </si>
+  <si>
+    <t>document.getElementById("seg2")</t>
+  </si>
+  <si>
+    <t>customerPersonalInfoScreen</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-card-header ion-title')</t>
+  </si>
+  <si>
+    <t>customerDetailsBackBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]')</t>
+  </si>
+  <si>
+    <t>customerDetailsSaveBtn</t>
+  </si>
+  <si>
+    <t>applicantTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="guarCoapFlag"] ion-label')</t>
+  </si>
+  <si>
+    <t>applicantTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="guarCoapFlag"] ion-select')</t>
+  </si>
+  <si>
+    <t>customerTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="indCorpFlag"] ion-label')</t>
+  </si>
+  <si>
+    <t>customerTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="indCorpFlag"] ion-select')</t>
+  </si>
+  <si>
+    <t>titleLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="salutation"] ion-label')</t>
+  </si>
+  <si>
+    <t>titleDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="salutation"] ion-select')</t>
+  </si>
+  <si>
+    <t>firstNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstName"] ion-label')</t>
+  </si>
+  <si>
+    <t>firstNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstName"] input')</t>
+  </si>
+  <si>
+    <t>middleNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleName"] ion-label')</t>
+  </si>
+  <si>
+    <t>middleNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleName"] input')</t>
+  </si>
+  <si>
+    <t>lastNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastName"] ion-label')</t>
+  </si>
+  <si>
+    <t>lastNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastName"] input')</t>
+  </si>
+  <si>
+    <t>dobLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateBirthIncorp"] label')</t>
+  </si>
+  <si>
+    <t>dobCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateBirthIncorp"] p-calendar')</t>
+  </si>
+  <si>
+    <t>dobInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateBirthIncorp"] input')</t>
+  </si>
+  <si>
+    <t>genderLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gender"] ion-label')</t>
+  </si>
+  <si>
+    <t>genderDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gender"] ion-select')</t>
+  </si>
+  <si>
+    <t>maritalStatusLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="maritalStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>maritalStatusDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="maritalStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>educationLevelLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="qualificationType"] ion-label')</t>
+  </si>
+  <si>
+    <t>educationLevelDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="qualificationType"] ion-select')</t>
+  </si>
+  <si>
+    <t>nationalityLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="nationalityId"] ion-label')</t>
+  </si>
+  <si>
+    <t>nationalityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="nationalityId"] ion-select')</t>
+  </si>
+  <si>
+    <t>residentialStatusLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residenceStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>residentialStatusDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residenceStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>languageLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="languageId"] ion-label')</t>
+  </si>
+  <si>
+    <t>languageDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="languageId"] ion-select')</t>
+  </si>
+  <si>
+    <t>noOfDependsLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfDependents"] ion-label')</t>
+  </si>
+  <si>
+    <t>noOfDependsInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfDependents"] input')</t>
+  </si>
+  <si>
+    <t>blocklistLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isBlacklisted"] ion-label')</t>
+  </si>
+  <si>
+    <t>blocklistToggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isBlacklisted"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>remarksLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"] ion-label')</t>
+  </si>
+  <si>
+    <t>remarksInput</t>
+  </si>
+  <si>
+    <t>applicantType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="guarCoapFlag"]')</t>
+  </si>
+  <si>
+    <t>customerType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="indCorpFlag"]')</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="salutation"]')</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstName"]')</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleName"]')</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastName"]')</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateBirthIncorp"]')</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gender"]')</t>
+  </si>
+  <si>
+    <t>maritalStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="maritalStatus"]')</t>
+  </si>
+  <si>
+    <t>educationLevel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="qualificationType"]')</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="nationalityId"]')</t>
+  </si>
+  <si>
+    <t>residentialStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residenceStatus"]')</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="languageId"]')</t>
+  </si>
+  <si>
+    <t>noOfDependents</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfDependents"]')</t>
+  </si>
+  <si>
+    <t>clientCategory</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="clientCategory"]')</t>
+  </si>
+  <si>
+    <t>blocklisted</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isBlacklisted"]')</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"]')</t>
+  </si>
+  <si>
+    <t>blankFieldError</t>
+  </si>
+  <si>
+    <t>alphabetError</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-msg*="ALPHABET.ALLOWED"] ion-badge')</t>
+  </si>
+  <si>
+    <t>negativeNbrError</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-generic-msg*="enter a value that is n"] ion-badge')</t>
+  </si>
+  <si>
+    <t>contactDetailsBackBtn</t>
+  </si>
+  <si>
+    <t>contactDetailsSaveBtn</t>
+  </si>
+  <si>
+    <t>phoneType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneType"]')</t>
+  </si>
+  <si>
+    <t>phoneTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneType"] ion-label')</t>
+  </si>
+  <si>
+    <t>phoneTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneType"] ion-select')</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneNumber"]')</t>
+  </si>
+  <si>
+    <t>phoneNumberLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>phoneNumberInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneNumber"] input')</t>
+  </si>
+  <si>
+    <t>consentPhone</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="ConsentPhone"]')</t>
+  </si>
+  <si>
+    <t>consentPhoneLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="ConsentPhone"] ion-label')</t>
+  </si>
+  <si>
+    <t>consentPhoneDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="ConsentPhone"] ion-select')</t>
+  </si>
+  <si>
+    <t>contactType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Contactmethod"]')</t>
+  </si>
+  <si>
+    <t>contactTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Contactmethod"] ion-label')</t>
+  </si>
+  <si>
+    <t>contactTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Contactmethod"] ion-select')</t>
+  </si>
+  <si>
+    <t>preferdTimeContact</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="preferredtimeofcontact"]')</t>
+  </si>
+  <si>
+    <t>preferdTimeContactLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="preferredtimeofcontact"] ion-label')</t>
+  </si>
+  <si>
+    <t>preferdTimeContactInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="preferredtimeofcontact"] input')</t>
+  </si>
+  <si>
+    <t>emailType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="EmailType"]')</t>
+  </si>
+  <si>
+    <t>emailTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="EmailType"] ion-label')</t>
+  </si>
+  <si>
+    <t>emailTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="EmailType"] ion-select')</t>
+  </si>
+  <si>
+    <t>emailID</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Emailid"]')</t>
+  </si>
+  <si>
+    <t>emailIDLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Emailid"] ion-label')</t>
+  </si>
+  <si>
+    <t>emailIDInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Emailid"] input')</t>
+  </si>
+  <si>
+    <t>AutoloanADEntry_CustomerDetails</t>
+  </si>
+  <si>
+    <t>FatherFirstName</t>
+  </si>
+  <si>
+    <t>FatherMiddleName</t>
+  </si>
+  <si>
+    <t>FatherLastName</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar1"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar2"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar3"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>SpouseFirstName</t>
+  </si>
+  <si>
+    <t>SpouseMiddleName</t>
+  </si>
+  <si>
+    <t>SpouseLastName</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar4"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar5"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar6"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>NoOfChildren</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Spouse Status.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>SpouseStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="No. Of Children"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.RELIGION.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mothersName"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>MotherMaidenName</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="residenceType"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>TypesOfResidence</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="clientCategory"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>IndustrySegmentation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="isIncomeConsidered"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>IsIncomeConsider</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="dynamicCharField1"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>CustomerProfile</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="relationship"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="isPoliticallyExposed"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>PoliticalExposed</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="phone1"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mobile1"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>MobileNumberPrimary</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mobile2"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>MobileNumberSecondary</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="email"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>Email_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="preferredContactMethod"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>PreferredContactMethod</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="preferredContactTime"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>preferredTimeForContract</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Contact Details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2511,6 +3690,12 @@
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2590,7 +3775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2613,6 +3798,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2988,12 +4175,1750 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="61.28515625" customWidth="1"/>
+    <col min="2" max="2" width="108.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>816</v>
+      </c>
+      <c r="B4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>819</v>
+      </c>
+      <c r="B5" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>821</v>
+      </c>
+      <c r="B6" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>823</v>
+      </c>
+      <c r="B7" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="69.85546875" customWidth="1"/>
+    <col min="2" max="2" width="97.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>828</v>
+      </c>
+      <c r="B5" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B6" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>831</v>
+      </c>
+      <c r="B7" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>834</v>
+      </c>
+      <c r="B8" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>836</v>
+      </c>
+      <c r="B9" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>838</v>
+      </c>
+      <c r="B10" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>840</v>
+      </c>
+      <c r="B11" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B12" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>844</v>
+      </c>
+      <c r="B13" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>846</v>
+      </c>
+      <c r="B14" t="s">
+        <v>845</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="56.140625" customWidth="1"/>
+    <col min="2" max="2" width="139.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>854</v>
+      </c>
+      <c r="B5" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>855</v>
+      </c>
+      <c r="B6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>857</v>
+      </c>
+      <c r="B7" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>859</v>
+      </c>
+      <c r="B8" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>861</v>
+      </c>
+      <c r="B9" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>863</v>
+      </c>
+      <c r="B10" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>865</v>
+      </c>
+      <c r="B11" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>867</v>
+      </c>
+      <c r="B12" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>869</v>
+      </c>
+      <c r="B13" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>871</v>
+      </c>
+      <c r="B14" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>873</v>
+      </c>
+      <c r="B15" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>875</v>
+      </c>
+      <c r="B16" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>877</v>
+      </c>
+      <c r="B17" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>879</v>
+      </c>
+      <c r="B18" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>881</v>
+      </c>
+      <c r="B19" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>883</v>
+      </c>
+      <c r="B20" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>885</v>
+      </c>
+      <c r="B21" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>887</v>
+      </c>
+      <c r="B22" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>889</v>
+      </c>
+      <c r="B23" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>891</v>
+      </c>
+      <c r="B24" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>893</v>
+      </c>
+      <c r="B25" t="s">
+        <v>892</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B62"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="118.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>911</v>
+      </c>
+      <c r="B5" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>912</v>
+      </c>
+      <c r="B6" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>899</v>
+      </c>
+      <c r="B7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>901</v>
+      </c>
+      <c r="B8" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>903</v>
+      </c>
+      <c r="B9" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B11" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>908</v>
+      </c>
+      <c r="B12" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>915</v>
+      </c>
+      <c r="B17" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A58" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" customHeight="1">
+      <c r="A61" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="123.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="19" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B91" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B94" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B95" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView topLeftCell="A97" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3111,7 +6036,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6784,7 +9709,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8040" tabRatio="599" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="11610" windowHeight="8040" tabRatio="599" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1219">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -3105,9 +3105,6 @@
     <t>firstNameInput</t>
   </si>
   <si>
-    <t>document.querySelector('[id="customerFirstName"] input')</t>
-  </si>
-  <si>
     <t>middleNameLabel</t>
   </si>
   <si>
@@ -3117,9 +3114,6 @@
     <t>middleNameInput</t>
   </si>
   <si>
-    <t>document.querySelector('[id="customerMiddleName"] input')</t>
-  </si>
-  <si>
     <t>lastNameLabel</t>
   </si>
   <si>
@@ -3129,9 +3123,6 @@
     <t>lastNameInput</t>
   </si>
   <si>
-    <t>document.querySelector('[id="customerLastName"] input')</t>
-  </si>
-  <si>
     <t>dobLabel</t>
   </si>
   <si>
@@ -3231,9 +3222,6 @@
     <t>noOfDependsInput</t>
   </si>
   <si>
-    <t>document.querySelector('[id="noOfDependents"] input')</t>
-  </si>
-  <si>
     <t>blocklistLabel</t>
   </si>
   <si>
@@ -3552,18 +3540,12 @@
     <t>SpouseStatus</t>
   </si>
   <si>
-    <t>document.querySelector('digital-text-box[ng-reflect-title="No. Of Children"]').querySelector('input')</t>
-  </si>
-  <si>
     <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.RELIGION.TOOLTIP"]').nextElementSibling</t>
   </si>
   <si>
     <t>Religion</t>
   </si>
   <si>
-    <t>document.querySelector('digital-text-box[id="mothersName"]').querySelector('input')</t>
-  </si>
-  <si>
     <t>MotherMaidenName</t>
   </si>
   <si>
@@ -3643,6 +3625,66 @@
   </si>
   <si>
     <t>Contact Details</t>
+  </si>
+  <si>
+    <t>GetAttribute</t>
+  </si>
+  <si>
+    <t>getAttKyc</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="KYC Status"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstName"] ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleName"] ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastName"] ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="No. Of Children"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="ethnicType"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfDependents"] ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mothersName"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="existingCustomerFlag"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>existingBankrelationshipToggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="existingCustomerFlag"]')</t>
+  </si>
+  <si>
+    <t>existingBankrelationship</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isBlacklisted"] ')</t>
+  </si>
+  <si>
+    <t>blocklistLabe</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"]').querySelector('textarea')</t>
+  </si>
+  <si>
+    <t>remarkText</t>
   </si>
 </sst>
 </file>
@@ -5061,10 +5103,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5075,7 +5117,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="19" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -5174,737 +5216,798 @@
         <v>1024</v>
       </c>
       <c r="B16" t="s">
-        <v>1025</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B17" t="s">
         <v>1026</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B18" t="s">
-        <v>1029</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B19" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B20" t="s">
-        <v>1033</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B21" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="B22" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B23" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B24" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B25" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B26" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B27" t="s">
-        <v>1174</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B28" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1034</v>
+        <v>1206</v>
       </c>
       <c r="B29" t="s">
-        <v>1035</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B30" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B31" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1041</v>
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B34" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="B35" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B36" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B37" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B38" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B39" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="B40" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1103</v>
+        <v>1051</v>
       </c>
       <c r="B41" t="s">
-        <v>1104</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1176</v>
+        <v>1208</v>
       </c>
       <c r="B42" t="s">
-        <v>1175</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1060</v>
+        <v>1099</v>
       </c>
       <c r="B43" t="s">
-        <v>1061</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>1062</v>
+        <v>1171</v>
       </c>
       <c r="B44" t="s">
-        <v>1063</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="B45" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="B46" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="B47" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="B48" t="s">
-        <v>1059</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1178</v>
+        <v>1053</v>
       </c>
       <c r="B49" t="s">
-        <v>1177</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1180</v>
+        <v>1055</v>
       </c>
       <c r="B50" t="s">
-        <v>1179</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="B51" t="s">
-        <v>1181</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="B52" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="B53" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="B54" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="B55" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1069</v>
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1070</v>
+        <v>1214</v>
       </c>
       <c r="B59" t="s">
-        <v>1071</v>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="3" t="s">
-        <v>1203</v>
+      <c r="A61" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B62" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="B63" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1078</v>
+      <c r="A65" s="3" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="B66" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>1081</v>
+        <v>1218</v>
       </c>
       <c r="B67" t="s">
-        <v>1082</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="B68" t="s">
-        <v>1084</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="B69" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="B70" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="B71" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="B72" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="B73" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="B74" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="B75" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="B76" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="B77" t="s">
-        <v>1102</v>
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="3" t="s">
-        <v>1204</v>
+      <c r="A79" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>1191</v>
+        <v>1093</v>
       </c>
       <c r="B80" t="s">
-        <v>1192</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>1194</v>
+        <v>1095</v>
       </c>
       <c r="B81" t="s">
-        <v>1193</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>1196</v>
+        <v>1097</v>
       </c>
       <c r="B82" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3" t="s">
         <v>1198</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
       <c r="B85" t="s">
-        <v>1201</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="3"/>
+      <c r="A86" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1191</v>
+      </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1105</v>
+        <v>1194</v>
       </c>
       <c r="B89" t="s">
-        <v>1106</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1107</v>
+        <v>1196</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B91" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1113</v>
-      </c>
+      <c r="A91" s="3"/>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="B94" t="s">
-        <v>654</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B95" t="s">
-        <v>427</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="B96" t="s">
-        <v>1117</v>
+        <v>637</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="B97" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="B98" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="B99" t="s">
-        <v>1123</v>
+        <v>654</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="B100" t="s">
-        <v>1125</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
       <c r="B101" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
       <c r="B102" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
       <c r="B103" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
       <c r="B104" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
       <c r="B105" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="B106" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="B107" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="B108" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="B109" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
       <c r="B110" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
       <c r="B111" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="B112" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1150</v>
+        <v>1136</v>
       </c>
       <c r="B113" t="s">
-        <v>1151</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1152</v>
+        <v>1138</v>
       </c>
       <c r="B114" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="B115" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
       <c r="B116" t="s">
-        <v>1157</v>
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1201</v>
       </c>
     </row>
   </sheetData>

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="11610" windowHeight="8040" tabRatio="599" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="11610" windowHeight="8040" tabRatio="599" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="Mu_Under_AdditionalCustInfo_610" sheetId="13" r:id="rId13"/>
     <sheet name="_" sheetId="14" r:id="rId14"/>
     <sheet name="Al_ADEntry_CustomerDetails_610" sheetId="15" r:id="rId15"/>
+    <sheet name="Al_ADEntryDocDetails_610" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1267">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -204,9 +205,6 @@
     <t>locationWhereReceived_UnderDocumentDetails_610</t>
   </si>
   <si>
-    <t>document.getElementsByClassName("ng-tns-c195-16 p-inputtext p-component ng-star-inserted")[0]</t>
-  </si>
-  <si>
     <t>document.querySelector('ion-label[ng-reflect-text="FORM.RACK_NUMBER.TOOLTIP"')</t>
   </si>
   <si>
@@ -243,9 +241,6 @@
     <t>remarks_UnderDocumentDetails_610</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="UPLOAD_DATE.TOOLTIP"')</t>
-  </si>
-  <si>
     <t>document.querySelector('ion-label[ng-reflect-text="Customer Name.TOOLTIP"')</t>
   </si>
   <si>
@@ -3685,6 +3680,156 @@
   </si>
   <si>
     <t>remarkText</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-plus"]')</t>
+  </si>
+  <si>
+    <t>AddBtn</t>
+  </si>
+  <si>
+    <t>AutoloanADEntry_DocumentsDetails</t>
+  </si>
+  <si>
+    <t>AutoLoanADEntry_DocumentsDetails</t>
+  </si>
+  <si>
+    <t>document.getElementById("seg13")</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Customer Name.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_NAME.TOOLTIP"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>Documentname</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="REQUIRED_AT_STAGE.TOOLTIP"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>RequiredAtStage</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_STATUS.TOOLTIP"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>DocumentStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="MANDATORY_OR_OPTIONAL.TOOLTIP"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>MandatoryOptional</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_CATEGORY.TOOLTIP"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>DocumentCategory</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="uploadDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>UploadDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="expectedDateOfReceipt"] p-calendar')</t>
+  </si>
+  <si>
+    <t>ExpectedDateOfReceipt</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Deferral Stage.TOOLTIP"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>DeferralStage</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DEF_APPROVED_BY.TOOLTIP"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>DefApprovedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Change In Nature Approved By.T"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>ChangeInNatureApprovedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Form.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>DocumentFrom</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Quality.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>DocumentQuality</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.DOCUMENT_NUMBER.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>DocumentReferenceNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_APPROVED_BY.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>DocumentApprovedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_DETAILS_LOCATION_WHER"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>DocumentDetailsLocationWhereReceived</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.RACK_NUMBER.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>RackNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.SHELF_NUMBER.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>ShelfNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.BOX_NUMBER.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>BoxNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="expiryDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>DateOfExpiry</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Lodgement Amount.TOOLTIP"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>LodgementAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Remarks.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Remarks.TOOLTIP"]').nextElementSibling.querySelector('textarea')</t>
+  </si>
+  <si>
+    <t>RemarkText</t>
   </si>
 </sst>
 </file>
@@ -4233,7 +4378,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -4241,42 +4386,42 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B7" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -4304,7 +4449,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -4312,98 +4457,98 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B10" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B11" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B13" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B14" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -4417,7 +4562,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4428,7 +4573,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -4436,186 +4581,186 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B6" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B7" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B8" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B9" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B10" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B12" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B13" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B14" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B15" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B16" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B17" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B18" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B19" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B20" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B21" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B22" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B23" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B24" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B25" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -4629,7 +4774,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4640,7 +4785,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -4648,84 +4793,84 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B9" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B10" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B11" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B12" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B17" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4734,354 +4879,354 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="19.5" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.5" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="12.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="13.5" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="19.5" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="13.5" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16.5" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="19.5" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18.75" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -5103,10 +5248,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5117,7 +5262,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="19" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -5125,652 +5270,652 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B10" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B13" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B14" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B15" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B16" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B17" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B18" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B19" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B20" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B21" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B22" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B23" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B24" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B25" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B26" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B27" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B28" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B29" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B30" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B31" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B32" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B34" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B35" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B37" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B38" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B39" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B40" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B41" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B42" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B43" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B44" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B45" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B46" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B47" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B48" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B49" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B50" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B51" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B52" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B53" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B54" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B55" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B56" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B57" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B59" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B60" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B61" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B62" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B63" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B66" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B67" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B68" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B69" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B70" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B71" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B72" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B73" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B74" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B75" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B76" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B77" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B78" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B79" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B80" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B81" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B82" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B85" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B86" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B87" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B88" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B89" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B90" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -5778,241 +5923,476 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B94" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B96" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B97" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B98" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B99" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B100" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B101" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B102" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B103" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B104" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B105" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B106" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B107" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B108" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B109" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B110" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B111" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B112" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B113" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B114" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B115" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B116" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B117" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B118" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B119" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B120" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B121" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B125" t="s">
-        <v>1201</v>
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1217</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>691</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6020,8 +6400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B289"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6048,10 +6428,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6080,10 +6460,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6115,7 +6495,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6139,7 +6519,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6163,7 +6543,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6171,7 +6551,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6240,1577 +6620,1577 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B79" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B82" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
+        <v>399</v>
+      </c>
+      <c r="B83" t="s">
         <v>401</v>
-      </c>
-      <c r="B83" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B94" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B95" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B100" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B101" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B102" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B105" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B112" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B116" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B118" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B119" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B120" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B121" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B125" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B126" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B127" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B128" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B130" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="21" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B131" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="24" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B132" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B133" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B134" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B137" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B138" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B139" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B140" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B142" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B146" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B147" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B148" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B149" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B150" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B151" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B152" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B153" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B157" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B158" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B159" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B160" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B161" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B162" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B163" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B164" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B165" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B166" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B167" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B168" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B169" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B170" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B171" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B172" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B173" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
+        <v>277</v>
+      </c>
+      <c r="B177" t="s">
         <v>279</v>
-      </c>
-      <c r="B177" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
+        <v>278</v>
+      </c>
+      <c r="B178" t="s">
         <v>280</v>
-      </c>
-      <c r="B178" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B182" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B183" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B184" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B189" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B190" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B191" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B192" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B193" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B194" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B195" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B196" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B197" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B198" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B199" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B200" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B201" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B202" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B203" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B204" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B205" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B206" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B210" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B211" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B215" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B216" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B217" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B218" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B220" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B221" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B222" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B224" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B225" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B226" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B227" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B228" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B229" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B230" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B231" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B232" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B233" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B234" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B235" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B236" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B237" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B238" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B242" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B246" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B247" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B248" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B249" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B253" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B254" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B256" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B258" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B259" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B261" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B263" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B264" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B268" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B272" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
+        <v>399</v>
+      </c>
+      <c r="B273" t="s">
         <v>401</v>
-      </c>
-      <c r="B273" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B278" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B279" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B280" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B281" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B282" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B283" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B284" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B285" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B286" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B287" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B289" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -7824,7 +8204,7 @@
   <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7835,7 +8215,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7843,694 +8223,694 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B36" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B37" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B38" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B39" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B43" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B44" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B48" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B51" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B58" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B62" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>399</v>
+      </c>
+      <c r="B63" t="s">
         <v>401</v>
-      </c>
-      <c r="B63" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B68" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B69" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B73" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B74" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B78" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B79" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B80" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B81" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B82" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B83" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B84" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B85" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B86" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B87" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B89" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B95" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B98" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B99" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B103" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B104" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B105" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B120" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B121" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B122" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -8555,7 +8935,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8563,39 +8943,39 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -8607,8 +8987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8619,7 +8999,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -8627,658 +9007,658 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="13" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="12" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="12" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="12" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="12" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="12" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="12" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="12" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="12" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="12" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="12" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="12" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="12" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="12" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="12" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="12" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="12" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="12" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="12" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -9294,7 +9674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -9306,7 +9686,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -9314,170 +9694,170 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="12" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="12" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="12" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="12" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="12" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="12" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="12" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="12" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="12" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="12" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="12" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="12" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="12" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -9489,7 +9869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
@@ -9501,7 +9881,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -9509,42 +9889,42 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -9557,8 +9937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9569,7 +9949,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -9577,228 +9957,228 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B10" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B17" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B18" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B20" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B22" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B24" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B25" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B26" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B27" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B28" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B29" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B30" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B31" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B32" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B33" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B34" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -9823,7 +10203,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -9831,127 +10211,127 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B7" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B8" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B10" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B11" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B12" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B14" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B19" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B20" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="1269">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -3830,6 +3830,12 @@
   </si>
   <si>
     <t>RemarkText</t>
+  </si>
+  <si>
+    <t>DocumentsDetailsScroll</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Details"]')</t>
   </si>
 </sst>
 </file>
@@ -5250,8 +5256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A104" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6173,8 +6179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6197,6 +6203,14 @@
       </c>
       <c r="B3" t="s">
         <v>1221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -2,34 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="11610" windowHeight="8040" tabRatio="599" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="11610" windowHeight="8040" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="Ijara_AD_DocumentDetails" sheetId="2" r:id="rId2"/>
-    <sheet name="Murabha_Module" sheetId="3" r:id="rId3"/>
-    <sheet name="Tawarruq_Module" sheetId="4" r:id="rId4"/>
-    <sheet name="Tawarruq_ADEntry_Income" sheetId="5" r:id="rId5"/>
-    <sheet name="Tawarruq_ADEntry_LivingExpense" sheetId="6" r:id="rId6"/>
-    <sheet name="TA_CommodityMaker_AdhocPayment" sheetId="7" r:id="rId7"/>
-    <sheet name="TA_CommondityMaker_Configuratio" sheetId="8" r:id="rId8"/>
-    <sheet name="TA_Offering_InterstRateStructur" sheetId="9" r:id="rId9"/>
-    <sheet name="Murabha_ContractSinging" sheetId="10" r:id="rId10"/>
-    <sheet name="Murabha_PurchasOrder" sheetId="11" r:id="rId11"/>
-    <sheet name="Murabha_UnderWriter_CustomerFin" sheetId="12" r:id="rId12"/>
-    <sheet name="Mu_Under_AdditionalCustInfo_610" sheetId="13" r:id="rId13"/>
-    <sheet name="_" sheetId="14" r:id="rId14"/>
-    <sheet name="Al_ADEntry_CustomerDetails_610" sheetId="15" r:id="rId15"/>
-    <sheet name="Al_ADEntryDocDetails_610" sheetId="16" r:id="rId16"/>
+    <sheet name="Ijara_ADEntry_FacilityDet_610" sheetId="18" r:id="rId3"/>
+    <sheet name="Tawarrq_DocumentDetails_610" sheetId="17" r:id="rId4"/>
+    <sheet name="Murabha_Module" sheetId="3" r:id="rId5"/>
+    <sheet name="Tawarruq_Module" sheetId="4" r:id="rId6"/>
+    <sheet name="Tawarruq_ADEntry_Income" sheetId="5" r:id="rId7"/>
+    <sheet name="Tawarruq_ADEntry_LivingExpense" sheetId="6" r:id="rId8"/>
+    <sheet name="TA_CommodityMaker_AdhocPayment" sheetId="7" r:id="rId9"/>
+    <sheet name="TA_CommondityMaker_Configuratio" sheetId="8" r:id="rId10"/>
+    <sheet name="TA_Offering_InterstRateStructur" sheetId="9" r:id="rId11"/>
+    <sheet name="Murabha_ContractSinging" sheetId="10" r:id="rId12"/>
+    <sheet name="Murabha_PurchasOrder" sheetId="11" r:id="rId13"/>
+    <sheet name="Murabha_UnderWriter_CustomerFin" sheetId="12" r:id="rId14"/>
+    <sheet name="Mu_Under_AdditionalCustInfo_610" sheetId="13" r:id="rId15"/>
+    <sheet name="_" sheetId="14" r:id="rId16"/>
+    <sheet name="Al_ADEntry_CustomerDetails_610" sheetId="15" r:id="rId17"/>
+    <sheet name="Al_ADEntryDocDetails_610" sheetId="16" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1435">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -3836,13 +3838,511 @@
   </si>
   <si>
     <t>document.querySelector('ion-label[ng-reflect-text="Document Details"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seg")</t>
+  </si>
+  <si>
+    <t>Tawarrqu_DocumentsDetailsScreen_610</t>
+  </si>
+  <si>
+    <t>DocumentDetails_FieldName</t>
+  </si>
+  <si>
+    <t>DocumentDetails_Button</t>
+  </si>
+  <si>
+    <t>DocumentDetails_AddIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-icon="pi pi-plus"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Customer Name.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>DocumentName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_NAME.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="REQUIRED_AT_STAGE.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_STATUS.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="MANDATORY_OR_OPTIONAL.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_CATEGORY.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="uploadDate"] button')</t>
+  </si>
+  <si>
+    <t>ExpectedReceiptDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="expectedDateOfReceipt"] button')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Deferral Stage.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DEF_APPROVED_BY.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Change In Nature Approved By.T"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>DocumentForm</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Form.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Quality.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.DOCUMENT_NUMBER.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>DocumentReceivedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_APPROVED_BY.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>LocationWhereReceived</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_DETAILS_LOCATION_WHER"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.RACK_NUMBER.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.SHELF_NUMBER.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.BOX_NUMBER.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="expiryDate"] button')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Lodgement Amount.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Remarks.TOOLTIP"]+ion-textarea textarea')</t>
+  </si>
+  <si>
+    <t>SaveIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-save"]')</t>
+  </si>
+  <si>
+    <t>BackIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-arrow-left"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="documentIdDesc"]').parentElement.parentElement.nextElementSibling.querySelectorAll('tr')[0].querySelectorAll('td')[0].querySelectorAll('button')[0]</t>
+  </si>
+  <si>
+    <t>mailBox</t>
+  </si>
+  <si>
+    <t>document.querySelector('[name="mail-unread-outline"]')</t>
+  </si>
+  <si>
+    <t>mailInboxSearchBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Search"]')</t>
+  </si>
+  <si>
+    <t>inboxSearchInput</t>
+  </si>
+  <si>
+    <t>document.querySelector("#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt; input")</t>
+  </si>
+  <si>
+    <t>inboxEntitleBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Entitle"]')</t>
+  </si>
+  <si>
+    <t>nextBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[class^="btnNext ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>TodayButton</t>
+  </si>
+  <si>
+    <t>DateOfExpiryInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="Date Of Expiry.TOOLTIP"] p-calendar input')</t>
+  </si>
+  <si>
+    <t>HelpButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="information-circle-outline"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-icon="pi pi-arrow-left"]')</t>
+  </si>
+  <si>
+    <t>ViewDocumentButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-json-name="Document_Form_01"]')</t>
+  </si>
+  <si>
+    <t>FileUploadButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="fileUploaded"]')</t>
+  </si>
+  <si>
+    <t>DocumentNameField</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="documentIdDesc"]')</t>
+  </si>
+  <si>
+    <t>RequiredAtStageField</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="requiredByStageDesc"]')</t>
+  </si>
+  <si>
+    <t>DocumentStatusField</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="receivedStatusDesc"]')</t>
+  </si>
+  <si>
+    <t>MandatoryOptionalField</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="isMandatoryDesc"]')</t>
+  </si>
+  <si>
+    <t>DocumentCategoryField</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="documentClassIdDesc"]')</t>
+  </si>
+  <si>
+    <t>DMSUploadStatusField</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="scannedStatusDesc"]')</t>
+  </si>
+  <si>
+    <t>SearchInput</t>
+  </si>
+  <si>
+    <t>ExportPDF</t>
+  </si>
+  <si>
+    <t>document.querySelector('li[aria-label="PDF"]')</t>
+  </si>
+  <si>
+    <t>ExportXLS</t>
+  </si>
+  <si>
+    <t>document.querySelector('li[aria-label="XLS"]')</t>
+  </si>
+  <si>
+    <t>ExportIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdown[ng-reflect-placeholder="Export"]')</t>
+  </si>
+  <si>
+    <t>SearchButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-search"]')  </t>
+  </si>
+  <si>
+    <t>ViewList_DocumentNameField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="documentIdDesc"]')</t>
+  </si>
+  <si>
+    <t>ViewList_RequredAtStageField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="requiredByStageDesc"]')</t>
+  </si>
+  <si>
+    <t>ViewList_DocumentStatusField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="receivedStatusDesc"]')</t>
+  </si>
+  <si>
+    <t>ViewList_MandatoryOptionalField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="isMandatoryDesc"]')</t>
+  </si>
+  <si>
+    <t>ViewList_DocumentCategoryField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="documentClassIdDesc"]')</t>
+  </si>
+  <si>
+    <t>VierList_DMSUploadStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="scannedStatusDesc"]')</t>
+  </si>
+  <si>
+    <t>listViewSearchResultValidation</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen span[class="p-paginator-current ng-star-inserted"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg12"]')</t>
+  </si>
+  <si>
+    <t>Facility_info_Tab</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg6"]')</t>
+  </si>
+  <si>
+    <t>AddButton_under_FacilityInfo</t>
+  </si>
+  <si>
+    <t>SaveButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"]')</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="product"] ion-select')</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="subProductCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="schemeId"] ion-select')</t>
+  </si>
+  <si>
+    <t>ProgrameCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="programCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>FacilityType</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="facilityTypeCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>ServicingBranch</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="location"] ion-select')</t>
+  </si>
+  <si>
+    <t>PricingIndicator</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="packageId"] ion-select')</t>
+  </si>
+  <si>
+    <t>RequestedAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="amountRequested"]')</t>
+  </si>
+  <si>
+    <t>DeclaredPropertyValue</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.PR"]')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"]')</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="currencyCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>LoanTenure</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="loanTenure"]')</t>
+  </si>
+  <si>
+    <t>RequestedAmount_mandy</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="amountRequested"] span[class="redclr ng-star-inserted"')</t>
+  </si>
+  <si>
+    <t>RequestedAmount_number</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="amountRequested"] input')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount_mandy</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"] span[class="redclr ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount_num</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"] input')</t>
+  </si>
+  <si>
+    <t>Select_HomeLoan</t>
+  </si>
+  <si>
+    <t>document.querySelector("#ion-overlay-57 &gt; ion-select-popover &gt; ion-list &gt; ion-radio-group &gt; ion-item:nth-child(2) &gt; ion-radio").shadowRoot.querySelector("#ion-rb-800")</t>
+  </si>
+  <si>
+    <t>Edit_button</t>
+  </si>
+  <si>
+    <t>DeclaredPropertyValue_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('#assetPrice &gt; div &gt; div &gt; ion-item &gt; div.PrimeInputBox &gt; div &gt; p-inputnumber &gt; span &gt; input')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount_input</t>
+  </si>
+  <si>
+    <t>RequestedAmount_Input</t>
+  </si>
+  <si>
+    <t>LoanTenure_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="loanTenure"] input')</t>
+  </si>
+  <si>
+    <t>PleaseFillDetails_Popup</t>
+  </si>
+  <si>
+    <t>SucessPopUP</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[aria-label*="Success"]')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount_Value</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"] p-inputnumber')</t>
+  </si>
+  <si>
+    <t>BackButton_prev</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-buttons[slot="start"] ion-button')</t>
+  </si>
+  <si>
+    <t>Inbox_title</t>
+  </si>
+  <si>
+    <t>document.querySelector('span[class="inboxDatacaption"]')</t>
+  </si>
+  <si>
+    <t>LoanTenure_value</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="loanTenure"] ion-input')</t>
+  </si>
+  <si>
+    <t>status_ToggleButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toggle[role="switch"]')</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>XLS</t>
+  </si>
+  <si>
+    <t>search_button_for_record</t>
+  </si>
+  <si>
+    <t>FacilityDetails_FieldName</t>
+  </si>
+  <si>
+    <t>ClassificationEd</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="product"] ')</t>
+  </si>
+  <si>
+    <t>ProductEd</t>
+  </si>
+  <si>
+    <t>ProgrameCodeEd</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="programCode"]')</t>
+  </si>
+  <si>
+    <t>SchemeEd</t>
+  </si>
+  <si>
+    <t>ServicingBranchEd</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="location"]')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3889,6 +4389,20 @@
       <color rgb="FF1F1F1F"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3968,7 +4482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3993,6 +4507,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4287,6 +4804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -4370,6 +4888,415 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="77.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>778</v>
+      </c>
+      <c r="B6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>731</v>
+      </c>
+      <c r="B7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B8" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>738</v>
+      </c>
+      <c r="B10" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>740</v>
+      </c>
+      <c r="B11" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>742</v>
+      </c>
+      <c r="B12" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>776</v>
+      </c>
+      <c r="B16" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>744</v>
+      </c>
+      <c r="B17" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>747</v>
+      </c>
+      <c r="B18" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>740</v>
+      </c>
+      <c r="B20" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>750</v>
+      </c>
+      <c r="B21" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>752</v>
+      </c>
+      <c r="B22" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>754</v>
+      </c>
+      <c r="B23" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>756</v>
+      </c>
+      <c r="B24" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>758</v>
+      </c>
+      <c r="B25" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>760</v>
+      </c>
+      <c r="B26" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>762</v>
+      </c>
+      <c r="B27" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>764</v>
+      </c>
+      <c r="B28" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>766</v>
+      </c>
+      <c r="B29" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>768</v>
+      </c>
+      <c r="B30" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>770</v>
+      </c>
+      <c r="B31" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>742</v>
+      </c>
+      <c r="B32" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>772</v>
+      </c>
+      <c r="B33" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>774</v>
+      </c>
+      <c r="B34" t="s">
+        <v>773</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="63" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>785</v>
+      </c>
+      <c r="B7" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>787</v>
+      </c>
+      <c r="B8" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>789</v>
+      </c>
+      <c r="B9" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>791</v>
+      </c>
+      <c r="B10" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>793</v>
+      </c>
+      <c r="B11" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>795</v>
+      </c>
+      <c r="B12" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>797</v>
+      </c>
+      <c r="B13" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>799</v>
+      </c>
+      <c r="B14" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>801</v>
+      </c>
+      <c r="B15" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>808</v>
+      </c>
+      <c r="B19" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>809</v>
+      </c>
+      <c r="B20" t="s">
+        <v>807</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -4439,8 +5366,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -4563,8 +5491,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -4775,8 +5704,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -5240,8 +6170,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5252,8 +6183,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView topLeftCell="A104" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -6175,12 +7107,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6412,10 +7345,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B289"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A217" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7769,441 +8703,449 @@
         <v>175</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" ht="15.75">
       <c r="A216" t="s">
-        <v>334</v>
-      </c>
-      <c r="B216" t="s">
-        <v>333</v>
+        <v>1270</v>
+      </c>
+      <c r="B216" s="20" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B217" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B218" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>339</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="B219" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>342</v>
-      </c>
-      <c r="B220" t="s">
-        <v>341</v>
+        <v>339</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B221" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B222" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B223" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B224" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B225" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B226" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B227" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B228" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B229" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B230" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B231" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B232" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B233" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B234" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B235" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B237" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
+        <v>387</v>
+      </c>
+      <c r="B238" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
         <v>390</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="6" t="s">
+    <row r="241" spans="1:2">
+      <c r="A241" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
         <v>376</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B243" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="6" t="s">
+    <row r="245" spans="1:2">
+      <c r="A245" s="6" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
-        <v>380</v>
-      </c>
-      <c r="B246" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B247" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B248" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
+        <v>384</v>
+      </c>
+      <c r="B249" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
         <v>385</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B250" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="6" t="s">
+    <row r="252" spans="1:2">
+      <c r="A252" s="6" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" t="s">
-        <v>394</v>
-      </c>
-      <c r="B253" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
+        <v>394</v>
+      </c>
+      <c r="B254" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
         <v>395</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B255" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
         <v>396</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B257" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" t="s">
-        <v>403</v>
-      </c>
-      <c r="B258" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
+        <v>403</v>
+      </c>
+      <c r="B259" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
         <v>405</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B260" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
         <v>406</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B262" t="s">
         <v>407</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
-        <v>408</v>
-      </c>
-      <c r="B263" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
+        <v>408</v>
+      </c>
+      <c r="B264" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
         <v>411</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B265" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="6" t="s">
+    <row r="267" spans="1:2">
+      <c r="A267" s="6" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
         <v>415</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B269" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="3" t="s">
+    <row r="271" spans="1:2">
+      <c r="A271" s="3" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="s">
-        <v>419</v>
-      </c>
-      <c r="B272" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
+        <v>419</v>
+      </c>
+      <c r="B273" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
         <v>399</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B274" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="3" t="s">
+    <row r="277" spans="1:2">
+      <c r="A277" s="3" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" t="s">
-        <v>432</v>
-      </c>
-      <c r="B278" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B279" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B280" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B281" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B282" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B283" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B284" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B285" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B286" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B287" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>451</v>
-      </c>
-      <c r="B288" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B288" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
+        <v>451</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
         <v>482</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B290" t="s">
         <v>169</v>
       </c>
     </row>
@@ -8215,6 +9157,836 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="64.85546875" customWidth="1"/>
+    <col min="2" max="2" width="162.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="22" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="21" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="21" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="21" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="21" t="s">
+        <v>681</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="21" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="21" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="21" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="21" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="21" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="21" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" s="21" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="21" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" s="21" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="21" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" s="21" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="21" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="21" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
+      <c r="A19" s="21" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20" s="21" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75">
+      <c r="A21" s="21" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75">
+      <c r="A22" s="21" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75">
+      <c r="A23" s="21" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75">
+      <c r="A24" s="21" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75">
+      <c r="A25" s="21" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75">
+      <c r="A26" s="21" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75">
+      <c r="A27" s="21" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75">
+      <c r="A28" s="21" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75">
+      <c r="A29" s="21" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75">
+      <c r="A30" s="21" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75">
+      <c r="A31" s="21" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75">
+      <c r="A32" s="21" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75">
+      <c r="A33" s="21" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75">
+      <c r="A34" s="21" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75">
+      <c r="A35" s="21" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75">
+      <c r="A36" s="21" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75">
+      <c r="A37" s="21" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75">
+      <c r="A38" s="21" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75">
+      <c r="A39" s="21" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75">
+      <c r="A40" s="21" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75">
+      <c r="A41" s="21" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75">
+      <c r="A42" s="21" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="131" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="19" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>711</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>681</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -8933,8 +10705,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -8997,8 +10770,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -9684,8 +11458,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -9879,8 +11654,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -9945,410 +11721,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.140625" customWidth="1"/>
-    <col min="2" max="2" width="77.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>729</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>780</v>
-      </c>
-      <c r="B3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>778</v>
-      </c>
-      <c r="B6" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>731</v>
-      </c>
-      <c r="B7" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>736</v>
-      </c>
-      <c r="B8" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>735</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>738</v>
-      </c>
-      <c r="B10" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>740</v>
-      </c>
-      <c r="B11" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>742</v>
-      </c>
-      <c r="B12" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>776</v>
-      </c>
-      <c r="B16" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>744</v>
-      </c>
-      <c r="B17" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>747</v>
-      </c>
-      <c r="B18" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B19" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>740</v>
-      </c>
-      <c r="B20" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>750</v>
-      </c>
-      <c r="B21" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>752</v>
-      </c>
-      <c r="B22" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>754</v>
-      </c>
-      <c r="B23" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>756</v>
-      </c>
-      <c r="B24" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>758</v>
-      </c>
-      <c r="B25" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>760</v>
-      </c>
-      <c r="B26" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>762</v>
-      </c>
-      <c r="B27" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>764</v>
-      </c>
-      <c r="B28" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>766</v>
-      </c>
-      <c r="B29" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>768</v>
-      </c>
-      <c r="B30" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>770</v>
-      </c>
-      <c r="B31" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>742</v>
-      </c>
-      <c r="B32" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>772</v>
-      </c>
-      <c r="B33" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>774</v>
-      </c>
-      <c r="B34" t="s">
-        <v>773</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="63" customWidth="1"/>
-    <col min="2" max="2" width="88.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>781</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>802</v>
-      </c>
-      <c r="B3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>803</v>
-      </c>
-      <c r="B4" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>784</v>
-      </c>
-      <c r="B6" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>785</v>
-      </c>
-      <c r="B7" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>787</v>
-      </c>
-      <c r="B8" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>789</v>
-      </c>
-      <c r="B9" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>791</v>
-      </c>
-      <c r="B10" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>793</v>
-      </c>
-      <c r="B11" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>795</v>
-      </c>
-      <c r="B12" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>797</v>
-      </c>
-      <c r="B13" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>799</v>
-      </c>
-      <c r="B14" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>801</v>
-      </c>
-      <c r="B15" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>808</v>
-      </c>
-      <c r="B19" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>809</v>
-      </c>
-      <c r="B20" t="s">
-        <v>807</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="1445">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -4336,6 +4336,36 @@
   </si>
   <si>
     <t>document.querySelector('digital-select-layout[id="location"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="packageId"]')</t>
+  </si>
+  <si>
+    <t>PricingIndicatorEd</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="amountRequested"]').querySelector('p-inputnumber')</t>
+  </si>
+  <si>
+    <t>RequestedAmountType</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmountType</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="currencyCode"] ')</t>
+  </si>
+  <si>
+    <t>CurrencyEd</t>
+  </si>
+  <si>
+    <t>LoanTenureType</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="loanTenure"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"]').querySelector('p-inputnumber')</t>
   </si>
 </sst>
 </file>
@@ -9157,10 +9187,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9299,209 +9329,249 @@
     </row>
     <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="21" t="s">
-        <v>1381</v>
+        <v>1436</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>1382</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="21" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="21" t="s">
-        <v>1385</v>
+        <v>1438</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>1386</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75">
       <c r="A20" s="21" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="21" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75">
       <c r="A22" s="21" t="s">
-        <v>1391</v>
+        <v>1439</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>1392</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="21" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75">
       <c r="A24" s="21" t="s">
-        <v>1395</v>
+        <v>1441</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>1396</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75">
       <c r="A25" s="21" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75">
       <c r="A26" s="21" t="s">
-        <v>1399</v>
+        <v>1442</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>1400</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75">
       <c r="A27" s="21" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75">
       <c r="A28" s="21" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>712</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75">
       <c r="A29" s="21" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75">
       <c r="A30" s="21" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75">
       <c r="A31" s="21" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75">
       <c r="A32" s="21" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75">
       <c r="A33" s="21" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>398</v>
+        <v>712</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75">
       <c r="A34" s="21" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75">
       <c r="A35" s="21" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75">
       <c r="A36" s="21" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>1416</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75">
       <c r="A37" s="21" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75">
       <c r="A38" s="21" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>1420</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75">
       <c r="A39" s="21" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>1422</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75">
       <c r="A40" s="21" t="s">
-        <v>1423</v>
+        <v>1413</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>1342</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75">
       <c r="A41" s="21" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>1344</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75">
       <c r="A42" s="21" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75">
+      <c r="A43" s="21" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75">
+      <c r="A44" s="21" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75">
+      <c r="A45" s="21" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75">
+      <c r="A46" s="21" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75">
+      <c r="A47" s="21" t="s">
         <v>1425</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B47" s="21" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9514,7 +9584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="B33" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="11610" windowHeight="8040" tabRatio="599" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="11610" windowHeight="8040" tabRatio="599" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="1445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="1493">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -4366,13 +4366,157 @@
   </si>
   <si>
     <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"]').querySelector('p-inputnumber')</t>
+  </si>
+  <si>
+    <t>ListView</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="product"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="subProductCode"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="loanTenure"]')</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="amountRequested"]')</t>
+  </si>
+  <si>
+    <t>RequestAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="recStatus"]')</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pdf</t>
+  </si>
+  <si>
+    <t>Xls</t>
+  </si>
+  <si>
+    <t>ExportDropDown</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-search"]')</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdown[placeholder="Export"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[type="text"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-cards[mode="ios"]').querySelector('p-paginator').querySelectorAll('span')[2]</t>
+  </si>
+  <si>
+    <t>Matching Data</t>
+  </si>
+  <si>
+    <t>matchingData</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-cards[mode="ios"]').querySelector('input[mode="ios"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstNameInOtherLang"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>FirstNameArabic</t>
+  </si>
+  <si>
+    <t>Murabha</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerMiddleNameInOtherLang"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastNameInOtherLang"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>LastNameArabic</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerNameInOtherLang"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>FamilyNameArabic</t>
+  </si>
+  <si>
+    <t>MiddleNameArabic</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstNameInOtherLang"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerMiddleNameInOtherLang"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastNameInOtherLang"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerNameInOtherLang"]')</t>
+  </si>
+  <si>
+    <t>FirstNameArabicEdi</t>
+  </si>
+  <si>
+    <t>MiddleNameArabicEdi</t>
+  </si>
+  <si>
+    <t>LastNameArabicEdi</t>
+  </si>
+  <si>
+    <t>FamilyNameArabicEdi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murabha Editable </t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerThirdName"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>FamilyName</t>
+  </si>
+  <si>
+    <t>FamilyNameEdi</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerThirdName"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerAge"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>AgeEdi</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerAge"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>RemarText</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4434,8 +4578,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4484,6 +4647,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4512,7 +4681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4540,6 +4709,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4922,7 +5097,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5402,7 +5577,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5527,7 +5702,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5740,7 +5915,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6216,10 +6391,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6707,428 +6882,542 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>1216</v>
+        <v>1492</v>
       </c>
       <c r="B67" t="s">
-        <v>1215</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1068</v>
+        <v>1216</v>
       </c>
       <c r="B68" t="s">
-        <v>1102</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B69" t="s">
-        <v>1070</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B70" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B71" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B72" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B73" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B74" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B75" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B76" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B77" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B78" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B79" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B80" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B81" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>1095</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="3" t="s">
         <v>1196</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B86" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B87" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B88" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B89" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>1194</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="3"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1100</v>
-      </c>
+    <row r="92" spans="1:2">
+      <c r="A92" s="3"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>1101</v>
+        <v>1099</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B96" t="s">
-        <v>635</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B97" t="s">
-        <v>1105</v>
+        <v>635</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B98" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B99" t="s">
-        <v>652</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B100" t="s">
-        <v>425</v>
+        <v>652</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B101" t="s">
-        <v>1111</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B102" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B103" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B104" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B105" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B106" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B107" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B108" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B109" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B110" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B111" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B112" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B113" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B114" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B115" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B116" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B117" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B118" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B119" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B120" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>1150</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="3" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" s="3" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
         <v>1198</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
         <v>1218</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>1217</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="27" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75">
+      <c r="A133" s="24" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75">
+      <c r="A134" s="24" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B134" s="24" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75">
+      <c r="A135" s="24" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B135" s="24" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75">
+      <c r="A136" s="24" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75">
+      <c r="A137" s="24" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B137" s="24" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75">
+      <c r="A138" s="24" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75">
+      <c r="A140" s="28" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75">
+      <c r="A142" s="24" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B142" s="24" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75">
+      <c r="A143" s="24" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B143" s="24" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75">
+      <c r="A144" s="24" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B144" s="24" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75">
+      <c r="A145" s="24" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B145" s="24" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75">
+      <c r="A146" s="24" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B146" s="24" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75">
+      <c r="A147" s="24" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B147" s="24" t="s">
+        <v>1490</v>
       </c>
     </row>
   </sheetData>
@@ -7143,7 +7432,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7378,8 +7667,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B290"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView topLeftCell="A279" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9187,10 +9476,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9575,8 +9864,153 @@
         <v>420</v>
       </c>
     </row>
+    <row r="49" spans="1:2" ht="15.75">
+      <c r="A49" s="23" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75">
+      <c r="A51" s="24" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75">
+      <c r="A52" s="24" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75">
+      <c r="A53" s="24" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75">
+      <c r="A54" s="24" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75">
+      <c r="A55" s="24" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75">
+      <c r="A56" s="24" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75">
+      <c r="A57" s="24" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75">
+      <c r="A58" s="24" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75">
+      <c r="A59" s="24" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75">
+      <c r="A60" s="24" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75">
+      <c r="A61" s="24" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75">
+      <c r="A63" s="26" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75">
+      <c r="A65" s="24" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75">
+      <c r="A68" s="24"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.75">
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.75">
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+    </row>
+    <row r="72" spans="1:2" ht="15.75">
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.75">
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+    </row>
+    <row r="75" spans="1:2" ht="15.75">
+      <c r="A75" s="24"/>
+    </row>
+    <row r="77" spans="1:2" ht="15.75">
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+    </row>
+    <row r="78" spans="1:2" ht="15.75">
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+    </row>
+    <row r="79" spans="1:2" ht="15.75">
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+    </row>
+    <row r="80" spans="1:2" ht="15.75">
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9584,8 +10018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="B33" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="B21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10061,8 +10495,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10783,7 +11217,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10847,8 +11281,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="11610" windowHeight="8040" tabRatio="599" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="11610" windowHeight="8040" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1494">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -4510,6 +4510,9 @@
   </si>
   <si>
     <t>RemarText</t>
+  </si>
+  <si>
+    <t>currencyType</t>
   </si>
 </sst>
 </file>
@@ -6393,8 +6396,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A115" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7665,10 +7668,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B290"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
-    <sheetView topLeftCell="A279" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="B102" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8422,1049 +8425,1057 @@
         <v>185</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>187</v>
-      </c>
-      <c r="B118" t="s">
-        <v>186</v>
+    <row r="117" spans="1:2" ht="15.75">
+      <c r="A117" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B119" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B120" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
+        <v>191</v>
+      </c>
+      <c r="B121" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>193</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="3" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" s="3" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>195</v>
-      </c>
-      <c r="B125" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B126" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>288</v>
+        <v>198</v>
       </c>
       <c r="B127" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="B128" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B129" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
+        <v>203</v>
+      </c>
+      <c r="B130" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>205</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="21" customHeight="1">
-      <c r="A131" s="4" t="s">
+    <row r="132" spans="1:2" ht="21" customHeight="1">
+      <c r="A132" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="24" customHeight="1">
-      <c r="A132" s="4" t="s">
+    <row r="133" spans="1:2" ht="24" customHeight="1">
+      <c r="A133" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>210</v>
-      </c>
-      <c r="B133" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
+        <v>210</v>
+      </c>
+      <c r="B134" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
         <v>212</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>214</v>
-      </c>
-      <c r="B137" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B139" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
+        <v>219</v>
+      </c>
+      <c r="B140" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>221</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
         <v>222</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="6" t="s">
+    <row r="145" spans="1:2">
+      <c r="A145" s="6" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>225</v>
-      </c>
-      <c r="B146" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B147" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B148" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B149" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B150" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B151" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B152" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
+        <v>231</v>
+      </c>
+      <c r="B153" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
         <v>232</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="6" t="s">
+    <row r="156" spans="1:2">
+      <c r="A156" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="4" t="s">
+    <row r="158" spans="1:2">
+      <c r="A158" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>243</v>
-      </c>
-      <c r="B158" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B159" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B160" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B161" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B162" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B163" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B164" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="B165" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="B166" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B167" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B168" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B169" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B170" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B171" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B172" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
+        <v>256</v>
+      </c>
+      <c r="B173" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>257</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="6" t="s">
+    <row r="176" spans="1:2">
+      <c r="A176" s="6" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
-        <v>277</v>
-      </c>
-      <c r="B177" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
+        <v>277</v>
+      </c>
+      <c r="B178" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
         <v>278</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="6" t="s">
+    <row r="181" spans="1:2">
+      <c r="A181" s="6" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
-        <v>282</v>
-      </c>
-      <c r="B182" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B183" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
+        <v>283</v>
+      </c>
+      <c r="B184" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
         <v>284</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="3" t="s">
+    <row r="188" spans="1:2">
+      <c r="A188" s="3" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>294</v>
-      </c>
-      <c r="B189" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B190" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B191" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B192" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B193" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B194" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B195" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B196" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B197" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B198" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B199" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B200" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B201" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B202" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B203" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B204" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B205" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
+        <v>323</v>
+      </c>
+      <c r="B206" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
         <v>326</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="7" t="s">
+    <row r="209" spans="1:2">
+      <c r="A209" s="7" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
-        <v>328</v>
-      </c>
-      <c r="B210" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
+        <v>328</v>
+      </c>
+      <c r="B211" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
         <v>329</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B212" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="3" t="s">
+    <row r="214" spans="1:2">
+      <c r="A214" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
         <v>332</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B216" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15.75">
-      <c r="A216" t="s">
+    <row r="217" spans="1:2" ht="15.75">
+      <c r="A217" t="s">
         <v>1270</v>
       </c>
-      <c r="B216" s="20" t="s">
+      <c r="B217" s="20" t="s">
         <v>1269</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
-        <v>334</v>
-      </c>
-      <c r="B217" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B218" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B219" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>339</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="B220" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>342</v>
-      </c>
-      <c r="B221" t="s">
-        <v>341</v>
+        <v>339</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B222" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B223" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B224" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B225" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B226" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B227" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B228" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B229" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B230" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B231" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B232" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B233" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B234" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B235" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B236" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B237" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B238" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
+        <v>387</v>
+      </c>
+      <c r="B239" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
         <v>390</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B240" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="6" t="s">
+    <row r="242" spans="1:2">
+      <c r="A242" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
         <v>376</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="6" t="s">
+    <row r="246" spans="1:2">
+      <c r="A246" s="6" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" t="s">
-        <v>380</v>
-      </c>
-      <c r="B247" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B248" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B249" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
+        <v>384</v>
+      </c>
+      <c r="B250" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
         <v>385</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B251" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="6" t="s">
+    <row r="253" spans="1:2">
+      <c r="A253" s="6" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
-        <v>394</v>
-      </c>
-      <c r="B254" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
+        <v>394</v>
+      </c>
+      <c r="B255" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
         <v>395</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B256" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
         <v>396</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B258" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
-        <v>403</v>
-      </c>
-      <c r="B259" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
+        <v>403</v>
+      </c>
+      <c r="B260" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
         <v>405</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
         <v>406</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B263" t="s">
         <v>407</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
-        <v>408</v>
-      </c>
-      <c r="B264" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
+        <v>408</v>
+      </c>
+      <c r="B265" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
         <v>411</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B266" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="6" t="s">
+    <row r="268" spans="1:2">
+      <c r="A268" s="6" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
         <v>415</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B270" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="3" t="s">
+    <row r="272" spans="1:2">
+      <c r="A272" s="3" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="s">
-        <v>419</v>
-      </c>
-      <c r="B273" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
+        <v>419</v>
+      </c>
+      <c r="B274" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
         <v>399</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B275" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="3" t="s">
+    <row r="278" spans="1:2">
+      <c r="A278" s="3" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="s">
-        <v>432</v>
-      </c>
-      <c r="B279" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B280" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B281" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B282" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B283" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B284" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B285" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B286" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B287" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B288" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>451</v>
-      </c>
-      <c r="B289" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B289" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
+        <v>451</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
         <v>482</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B291" t="s">
         <v>169</v>
       </c>
     </row>

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="11610" windowHeight="8040" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="11610" windowHeight="8040" tabRatio="599" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1528">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -4513,6 +4513,108 @@
   </si>
   <si>
     <t>currencyType</t>
+  </si>
+  <si>
+    <t>noOfDependsInputt</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfDependents"] input')</t>
+  </si>
+  <si>
+    <t>negative value popup</t>
+  </si>
+  <si>
+    <t>noLessThan</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-generic-msg="Please enter a value that is n"] ion-badge')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-msg="VAL.ALPHABET.ALLOWED"] ion-badge')</t>
+  </si>
+  <si>
+    <t>onlyAlphabet</t>
+  </si>
+  <si>
+    <t>firstNameInputt</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstName"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastName"] input')</t>
+  </si>
+  <si>
+    <t>lastNameInputt</t>
+  </si>
+  <si>
+    <t>invalidInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-msg="Invalid input"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="recStatus"]').querySelector('ion-toggle')</t>
+  </si>
+  <si>
+    <t>StatusToggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerFirstName"]')</t>
+  </si>
+  <si>
+    <t>firstNameLV</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerMiddleName"]')</t>
+  </si>
+  <si>
+    <t>middleNameLV</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerLastName"]')</t>
+  </si>
+  <si>
+    <t>lastNameLV</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerThirdName"]')</t>
+  </si>
+  <si>
+    <t>familyNameLV</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="indCorpFlag"]')</t>
+  </si>
+  <si>
+    <t>customerTypeLV</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="guarCoapFlag"]')</t>
+  </si>
+  <si>
+    <t>ApplicateTypeLV</t>
+  </si>
+  <si>
+    <t>statusLV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active InActive Status </t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerFirstName"]').parentElement.parentElement.nextElementSibling.querySelector('p-tag')</t>
+  </si>
+  <si>
+    <t>ActiveInActiveFirstRow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-arrow-left"]').parentElement.parentElement</t>
+  </si>
+  <si>
+    <t>scrollUpCustomerDetails</t>
   </si>
 </sst>
 </file>
@@ -4601,7 +4703,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4656,6 +4758,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4684,7 +4792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4718,6 +4826,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5704,8 +5816,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5917,7 +6029,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6394,10 +6506,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6430,6 +6542,14 @@
         <v>1004</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="24" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>1526</v>
+      </c>
+    </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>1005</v>
@@ -6504,923 +6624,1142 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1022</v>
+        <v>1501</v>
       </c>
       <c r="B16" t="s">
-        <v>1200</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B17" t="s">
-        <v>1024</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B18" t="s">
-        <v>1201</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B19" t="s">
-        <v>1027</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B20" t="s">
-        <v>1202</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1153</v>
+        <v>1504</v>
       </c>
       <c r="B21" t="s">
-        <v>1156</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1154</v>
+        <v>1028</v>
       </c>
       <c r="B22" t="s">
-        <v>1157</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B23" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="B24" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="B25" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B26" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="B27" t="s">
-        <v>1203</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="B28" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1204</v>
+        <v>1165</v>
       </c>
       <c r="B29" t="s">
-        <v>1082</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1029</v>
+        <v>1167</v>
       </c>
       <c r="B30" t="s">
-        <v>1030</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1031</v>
+        <v>1204</v>
       </c>
       <c r="B31" t="s">
-        <v>1032</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B32" t="s">
-        <v>1034</v>
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B34" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B36" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B37" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B38" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B39" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B40" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B41" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1206</v>
+        <v>1047</v>
       </c>
       <c r="B42" t="s">
-        <v>1205</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1097</v>
+        <v>1049</v>
       </c>
       <c r="B43" t="s">
-        <v>1098</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>1169</v>
+        <v>1206</v>
       </c>
       <c r="B44" t="s">
-        <v>1168</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>1055</v>
+        <v>1097</v>
       </c>
       <c r="B45" t="s">
-        <v>1056</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1057</v>
+        <v>1169</v>
       </c>
       <c r="B46" t="s">
-        <v>1058</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B47" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B48" t="s">
-        <v>1207</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="B49" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1053</v>
+        <v>1494</v>
       </c>
       <c r="B50" t="s">
-        <v>1054</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1170</v>
+        <v>1061</v>
       </c>
       <c r="B51" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1172</v>
+        <v>1051</v>
       </c>
       <c r="B52" t="s">
-        <v>1171</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1174</v>
+        <v>1053</v>
       </c>
       <c r="B53" t="s">
-        <v>1173</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B54" t="s">
-        <v>1175</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B55" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B56" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B57" t="s">
-        <v>1181</v>
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1212</v>
+        <v>1180</v>
       </c>
       <c r="B59" t="s">
-        <v>1211</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1210</v>
+        <v>1182</v>
       </c>
       <c r="B60" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1213</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>1062</v>
+        <v>1212</v>
       </c>
       <c r="B62" t="s">
-        <v>1063</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>1064</v>
+        <v>1210</v>
       </c>
       <c r="B63" t="s">
-        <v>1065</v>
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="3" t="s">
-        <v>1195</v>
+      <c r="A65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B66" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1491</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1215</v>
+      <c r="A68" s="3" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B69" t="s">
-        <v>1102</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1069</v>
+        <v>1492</v>
       </c>
       <c r="B70" t="s">
-        <v>1070</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1071</v>
+        <v>1216</v>
       </c>
       <c r="B71" t="s">
-        <v>1072</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="B72" t="s">
-        <v>1074</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="B73" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="B74" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="B75" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="B76" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="B77" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="B78" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="B79" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="B80" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="B81" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B82" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="B83" t="s">
-        <v>1096</v>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="3" t="s">
-        <v>1196</v>
+      <c r="A85" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>1183</v>
+        <v>1095</v>
       </c>
       <c r="B86" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1185</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1187</v>
+      <c r="A88" s="3" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="B89" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B90" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>1194</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B94" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="3"/>
-    </row>
     <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B97" t="s">
-        <v>635</v>
-      </c>
+      <c r="A95" s="3"/>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B98" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="B100" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="B101" t="s">
-        <v>425</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B102" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B103" t="s">
-        <v>1113</v>
+        <v>652</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="B104" t="s">
-        <v>1115</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="B105" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="B106" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="B107" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="B108" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="B109" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="B110" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="B111" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="B112" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="B113" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="B114" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="B115" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="B116" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="B117" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="B118" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="B119" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="B120" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="B121" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
         <v>1150</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B125" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="3" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" s="3" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>1198</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B129" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>1218</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B131" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="27" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" s="27" t="s">
         <v>1467</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.75">
-      <c r="A133" s="24" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B133" s="24" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15.75">
-      <c r="A134" s="24" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B134" s="24" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15.75">
-      <c r="A135" s="24" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B135" s="24" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.75">
       <c r="A136" s="24" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.75">
       <c r="A137" s="24" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.75">
       <c r="A138" s="24" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75">
+      <c r="A139" s="24" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75">
+      <c r="A140" s="24" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B140" s="24" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75">
+      <c r="A141" s="24" t="s">
         <v>1488</v>
       </c>
-      <c r="B138" s="24" t="s">
+      <c r="B141" s="24" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15.75">
-      <c r="A140" s="28" t="s">
+    <row r="143" spans="1:2" ht="15.75">
+      <c r="A143" s="28" t="s">
         <v>1482</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="15.75">
-      <c r="A142" s="24" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B142" s="24" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="15.75">
-      <c r="A143" s="24" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B143" s="24" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="15.75">
-      <c r="A144" s="24" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B144" s="24" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.75">
       <c r="A145" s="24" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.75">
       <c r="A146" s="24" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>1486</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.75">
       <c r="A147" s="24" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B147" s="24" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75">
+      <c r="A148" s="24" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B148" s="24" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75">
+      <c r="A149" s="24" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B149" s="24" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75">
+      <c r="A150" s="24" t="s">
         <v>1489</v>
       </c>
-      <c r="B147" s="24" t="s">
+      <c r="B150" s="24" t="s">
         <v>1490</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75">
+      <c r="A152" s="28" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75">
+      <c r="A154" s="24" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B154" s="24" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75">
+      <c r="A155" s="24" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B155" s="24" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.75">
+      <c r="A156" s="24" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B156" s="24" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75">
+      <c r="A157" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B157" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.75">
+      <c r="A158" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B158" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.75">
+      <c r="A159" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B159" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75">
+      <c r="A160" s="24" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B160" s="24" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="27" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15.75">
+      <c r="A165" s="24" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B165" s="24" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C165" s="24"/>
+    </row>
+    <row r="166" spans="1:3" ht="15.75">
+      <c r="A166" s="24" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B166" s="24" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C166" s="24"/>
+    </row>
+    <row r="167" spans="1:3" ht="15.75">
+      <c r="A167" s="24" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B167" s="24" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C167" s="24"/>
+    </row>
+    <row r="168" spans="1:3" ht="15.75">
+      <c r="A168" s="24" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B168" s="24" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C168" s="24"/>
+    </row>
+    <row r="169" spans="1:3" ht="15.75">
+      <c r="A169" s="24" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B169" s="24" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C169" s="24"/>
+    </row>
+    <row r="170" spans="1:3" ht="15.75">
+      <c r="A170" s="24" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B170" s="24" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C170" s="24"/>
+    </row>
+    <row r="171" spans="1:3" ht="15.75">
+      <c r="A171" s="24" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C171" s="24"/>
+    </row>
+    <row r="172" spans="1:3" ht="15.75">
+      <c r="A172" s="24" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B172" s="24" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15.75">
+      <c r="A173" s="24" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B173" s="24" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15.75">
+      <c r="A174" s="24" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B174" s="24" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15.75">
+      <c r="A175" s="24" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B175" s="24" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15.75">
+      <c r="A176" s="24" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B176" s="25" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.75">
+      <c r="A177" s="24" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B177" s="24" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.75">
+      <c r="A179" s="30" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.75">
+      <c r="A181" s="24" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B181" s="24" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>1525</v>
       </c>
     </row>
   </sheetData>
@@ -7434,7 +7773,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -7670,8 +8009,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B102" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView topLeftCell="A75" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9487,10 +9826,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9977,7 +10317,7 @@
       <c r="A65" s="24" t="s">
         <v>1463</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="24" t="s">
         <v>1461</v>
       </c>
     </row>
@@ -10027,6 +10367,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView topLeftCell="B21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="11610" windowHeight="8040" tabRatio="599" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="11610" windowHeight="8040" tabRatio="599" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="_" sheetId="14" r:id="rId16"/>
     <sheet name="Al_ADEntry_CustomerDetails_610" sheetId="15" r:id="rId17"/>
     <sheet name="Al_ADEntryDocDetails_610" sheetId="16" r:id="rId18"/>
+    <sheet name="TA_ADC_EmploymentDetails" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="1807">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -4197,9 +4198,6 @@
     <t>DeclaredDownPaymentAmount</t>
   </si>
   <si>
-    <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"]')</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -4365,9 +4363,6 @@
     <t>document.querySelector('digital-text-box[id="loanTenure"]').querySelector('input')</t>
   </si>
   <si>
-    <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"]').querySelector('p-inputnumber')</t>
-  </si>
-  <si>
     <t>ListView</t>
   </si>
   <si>
@@ -4615,6 +4610,849 @@
   </si>
   <si>
     <t>scrollUpCustomerDetails</t>
+  </si>
+  <si>
+    <t>Facility_info_Tab_AL</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg8"]')</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="facilityTypeCode"] ')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="downPaymentAmount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="downPaymentAmount"]').querySelector('p-inputnumber')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="downPaymentAmount"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmountTypeAL</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="recStatus"]')</t>
+  </si>
+  <si>
+    <t>status_ToggleButton_NonEdi</t>
+  </si>
+  <si>
+    <t>EmploymentDetails_FieldName</t>
+  </si>
+  <si>
+    <t>SalariedEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('button[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>businessEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[1]</t>
+  </si>
+  <si>
+    <t>companyFirmEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[2]</t>
+  </si>
+  <si>
+    <t>pensionerEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[3]</t>
+  </si>
+  <si>
+    <t>selfEmployed_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[4]</t>
+  </si>
+  <si>
+    <t>EmpDetailsSectionNextPageBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[class="p-ripple p-element p-paginator-next p-paginator-element p-link"]')</t>
+  </si>
+  <si>
+    <t>selfEmployedProfessional_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[0]</t>
+  </si>
+  <si>
+    <t>customerEmploymentBackBtn</t>
+  </si>
+  <si>
+    <t>primaryEmployment</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isPrimaryEmployment"]')</t>
+  </si>
+  <si>
+    <t>primaryEmploymentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isPrimaryEmployment"] ion-label')</t>
+  </si>
+  <si>
+    <t>primaryEmploymentToggleBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isPrimaryEmployment"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>employmentPeriod</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentStatus"]')</t>
+  </si>
+  <si>
+    <t>employmentPeriodLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>employmentPeriodDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>natureOfEmployment</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentType"]')</t>
+  </si>
+  <si>
+    <t>natureOfEmploymentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentType"] ion-label')</t>
+  </si>
+  <si>
+    <t>natureOfEmploymentDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentType"] ion-select')</t>
+  </si>
+  <si>
+    <t>companyType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="companyType"]')</t>
+  </si>
+  <si>
+    <t>companyTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="companyType"] ion-label')</t>
+  </si>
+  <si>
+    <t>companyTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="companyType"] ion-select')</t>
+  </si>
+  <si>
+    <t>profession</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfessionCode"]')</t>
+  </si>
+  <si>
+    <t>professionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfessionCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>professionDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfessionCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>professionType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfession"]')</t>
+  </si>
+  <si>
+    <t>professionTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfession"] ion-label')</t>
+  </si>
+  <si>
+    <t>professionTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfession"] ion-select')</t>
+  </si>
+  <si>
+    <t>statutoryAuthority</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredStatutoryAuthority"]')</t>
+  </si>
+  <si>
+    <t>statutoryAuthorityLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredStatutoryAuthority"] ion-label')</t>
+  </si>
+  <si>
+    <t>statutoryAuthorityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredStatutoryAuthority"] ion-select')</t>
+  </si>
+  <si>
+    <t>employerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="employerName"]')</t>
+  </si>
+  <si>
+    <t>employerNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="employerName"] ion-label')</t>
+  </si>
+  <si>
+    <t>employerNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerName"] ion-select')</t>
+  </si>
+  <si>
+    <t>employerNameOthers</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="employerName"]')</t>
+  </si>
+  <si>
+    <t>employerNameOthersLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="employerName"] ion-label')</t>
+  </si>
+  <si>
+    <t>employerNameOthersInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="employerName"] ion-input')</t>
+  </si>
+  <si>
+    <t>employeeID</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employeeNumber"]')</t>
+  </si>
+  <si>
+    <t>employeeIDLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employeeNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>employeeIDInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employeeNumber"] ion-input')</t>
+  </si>
+  <si>
+    <t>dateOfJoining</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfJoining"]')</t>
+  </si>
+  <si>
+    <t>dateOfJoiningLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfJoining"] label')</t>
+  </si>
+  <si>
+    <t>dateOfJoiningCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfJoining"] p-calendar')</t>
+  </si>
+  <si>
+    <t>employmentEndDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentEndDate"]')</t>
+  </si>
+  <si>
+    <t>employmentEndDateLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentEndDate"] label')</t>
+  </si>
+  <si>
+    <t>employmentEndDateCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentEndDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="department"]')</t>
+  </si>
+  <si>
+    <t>departmentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="department"] ion-label')</t>
+  </si>
+  <si>
+    <t>departmentDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="department"] ion-select')</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="designation"]')</t>
+  </si>
+  <si>
+    <t>designationLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="designation"] ion-label')</t>
+  </si>
+  <si>
+    <t>designationDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="designation"] ion-select')</t>
+  </si>
+  <si>
+    <t>employmentType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMilitaryOrCivil"]')</t>
+  </si>
+  <si>
+    <t>employmentTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMilitaryOrCivil"] ion-label')</t>
+  </si>
+  <si>
+    <t>employmentTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMilitaryOrCivil"] ion-select')</t>
+  </si>
+  <si>
+    <t>directManagerContactNbr</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumberExtension"]')</t>
+  </si>
+  <si>
+    <t>directManagerContactNbrLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumberExtension"] ion-label')</t>
+  </si>
+  <si>
+    <t>directManagerContactNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumberExtension"] input')</t>
+  </si>
+  <si>
+    <t>directManagerTelephone</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumber"]')</t>
+  </si>
+  <si>
+    <t>directManagerTelephoneLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>directManagerTelephoneInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumber"] input')</t>
+  </si>
+  <si>
+    <t>incomePaymode</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="incomePaymode"]')</t>
+  </si>
+  <si>
+    <t>incomePaymodeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="incomePaymode"] ion-label')</t>
+  </si>
+  <si>
+    <t>incomePaymodeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="incomePaymode"] ion-select')</t>
+  </si>
+  <si>
+    <t>employerPhoneExtension</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneExtension"]')</t>
+  </si>
+  <si>
+    <t>employerPhoneExLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneExtension"] ion-label')</t>
+  </si>
+  <si>
+    <t>employerPhoneExInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneExtension"] input')</t>
+  </si>
+  <si>
+    <t>employerPhoneNbr</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneNumber"]')</t>
+  </si>
+  <si>
+    <t>employerPhoneNbrLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>employerPhoneNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneNumber"] input')</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField1"]')</t>
+  </si>
+  <si>
+    <t>stateLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField1"] ion-label')</t>
+  </si>
+  <si>
+    <t>stateDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField1"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField2"]')</t>
+  </si>
+  <si>
+    <t>cityLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField2"] ion-label')</t>
+  </si>
+  <si>
+    <t>cityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField2"] ion-select')</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField3"]')</t>
+  </si>
+  <si>
+    <t>pincodeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField3"] ion-label')</t>
+  </si>
+  <si>
+    <t>pincodeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField3"] input')</t>
+  </si>
+  <si>
+    <t>totalExperience</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalExperience"]')</t>
+  </si>
+  <si>
+    <t>totalExperienceLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalExperience"] ion-label')</t>
+  </si>
+  <si>
+    <t>totalExperienceInput</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sectorEconomy"]')</t>
+  </si>
+  <si>
+    <t>sectorLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sectorEconomy"] ion-label')</t>
+  </si>
+  <si>
+    <t>sectorDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sectorEconomy"] ion-select')</t>
+  </si>
+  <si>
+    <t>subSector</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="subSector"]')</t>
+  </si>
+  <si>
+    <t>subSectorLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="subSector"] ion-label')</t>
+  </si>
+  <si>
+    <t>subSectorDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="subSector"] ion-select')</t>
+  </si>
+  <si>
+    <t>noOfPartners</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfPartners"]')</t>
+  </si>
+  <si>
+    <t>noOfPartnersLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfPartners"] ion-label')</t>
+  </si>
+  <si>
+    <t>noOfPartnersInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfPartners"] input')</t>
+  </si>
+  <si>
+    <t>natureOfBusiness</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessActivity"]')</t>
+  </si>
+  <si>
+    <t>natureOfBusinessLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessActivity"] ion-label')</t>
+  </si>
+  <si>
+    <t>natureOfBusinessDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessActivity"] ion-select')</t>
+  </si>
+  <si>
+    <t>regBusinessName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessName"]')</t>
+  </si>
+  <si>
+    <t>regBusinessNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessName"] ion-label')</t>
+  </si>
+  <si>
+    <t>regBusinessNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessName"] input')</t>
+  </si>
+  <si>
+    <t>regBusinessNbr</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessNumber"]')</t>
+  </si>
+  <si>
+    <t>regBusinessNbrLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>regBusinessNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessNumber"] input')</t>
+  </si>
+  <si>
+    <t>businessRegisteredDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessDate"]')</t>
+  </si>
+  <si>
+    <t>businessRegisteredDateLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessDate"] label')</t>
+  </si>
+  <si>
+    <t>businessRegisteredDateCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>officePremisesType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="officePremisesType"]')</t>
+  </si>
+  <si>
+    <t>officePremisesTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="officePremisesType"] ion-label')</t>
+  </si>
+  <si>
+    <t>officePremisesTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="officePremisesType"] ion-select')</t>
+  </si>
+  <si>
+    <t>shareHolderPercent</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="shareholderPercentage"]')</t>
+  </si>
+  <si>
+    <t>shareHolderPercentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="shareholderPercentage"] ion-label')</t>
+  </si>
+  <si>
+    <t>shareHolderPercentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="shareholderPercentage"] ion-input')</t>
+  </si>
+  <si>
+    <t>numberOfEmployees</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfEmployees"]')</t>
+  </si>
+  <si>
+    <t>numberOfEmployeesLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfEmployees"] ion-label')</t>
+  </si>
+  <si>
+    <t>numberOfEmployeesInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfEmployees"] input')</t>
+  </si>
+  <si>
+    <t>experienceAtCurrentEmployment</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="yearsAtCurrentEmployment"]')</t>
+  </si>
+  <si>
+    <t>experienceAtCurrentEmploymentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="yearsAtCurrentEmployment"] ion-label')</t>
+  </si>
+  <si>
+    <t>experienceAtCurrentEmploymentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="yearsAtCurrentEmployment"] input')</t>
+  </si>
+  <si>
+    <t>directManagerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="managerName"]')</t>
+  </si>
+  <si>
+    <t>directManagerNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="managerName"] ion-label')</t>
+  </si>
+  <si>
+    <t>directManagerNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="managerName"] input')</t>
+  </si>
+  <si>
+    <t>employerCityCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneCityCode"]')</t>
+  </si>
+  <si>
+    <t>employerCityCodeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneCityCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>employerCityCodeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneCityCode"] input')</t>
+  </si>
+  <si>
+    <t>retirementAge</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="retirementAge"]')</t>
+  </si>
+  <si>
+    <t>retirementAgeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="retirementAge"] ion-label')</t>
+  </si>
+  <si>
+    <t>retirementAgeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="retirementAge"] input')</t>
+  </si>
+  <si>
+    <t>recordStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="recStatus"]')</t>
+  </si>
+  <si>
+    <t>recordStatusLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="recStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>recordStatusToggleBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="recStatus"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>remarksTextarea</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"] ion-textarea')</t>
+  </si>
+  <si>
+    <t>listview_SearchBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('button[icon="pi pi-search"]')</t>
+  </si>
+  <si>
+    <t>listview_EmployerName</t>
+  </si>
+  <si>
+    <t>listview_EmploymentStatus</t>
+  </si>
+  <si>
+    <t>listview_EmpValues</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('tr')[1]</t>
+  </si>
+  <si>
+    <t>searchbox_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('p-paginator span[class*="p-paginator-current"]')</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-icon="pi pi-search"]')[1]</t>
+  </si>
+  <si>
+    <t>searchbtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"]').parentElement.parentElement.nextElementSibling.querySelector('button')</t>
+  </si>
+  <si>
+    <t>CustomerSearchBtn</t>
+  </si>
+  <si>
+    <t>CustomerFinanceTab</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('input[type="text"]')[3]</t>
+  </si>
+  <si>
+    <t>searchInput</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-text="Go Back"]')[0].parentElement.parentElement.nextElementSibling.querySelector('button')</t>
+  </si>
+  <si>
+    <t>searchbtnTA</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-text="Go Back"]')[0].parentElement.parentElement.nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>searchInputTA</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-text="Go Back"]')[0].parentElement.parentElement.nextElementSibling.querySelector('[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>viewBtnTA</t>
   </si>
 </sst>
 </file>
@@ -5817,7 +6655,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6029,7 +6867,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6508,8 +7346,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A166" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6544,10 +7382,10 @@
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="24" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6624,10 +7462,10 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6664,10 +7502,10 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B21" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6888,10 +7726,10 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B50" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7029,10 +7867,10 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B70" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -7463,137 +8301,137 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="27" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.75">
       <c r="A136" s="24" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.75">
       <c r="A137" s="24" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.75">
       <c r="A138" s="24" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.75">
       <c r="A139" s="24" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.75">
       <c r="A140" s="24" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.75">
       <c r="A141" s="24" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.75">
       <c r="A143" s="28" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.75">
       <c r="A145" s="24" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.75">
       <c r="A146" s="24" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.75">
       <c r="A147" s="24" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.75">
       <c r="A148" s="24" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.75">
       <c r="A149" s="24" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B149" s="24" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.75">
       <c r="A150" s="24" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.75">
       <c r="A152" s="28" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.75">
       <c r="A154" s="24" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B154" s="24" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.75">
       <c r="A155" s="24" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B155" s="24" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.75">
       <c r="A156" s="24" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B156" s="24" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.75">
@@ -7622,77 +8460,77 @@
     </row>
     <row r="160" spans="1:2" ht="15.75">
       <c r="A160" s="24" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B160" s="24" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="27" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75">
       <c r="A165" s="24" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B165" s="24" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="C165" s="24"/>
     </row>
     <row r="166" spans="1:3" ht="15.75">
       <c r="A166" s="24" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B166" s="24" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C166" s="24"/>
     </row>
     <row r="167" spans="1:3" ht="15.75">
       <c r="A167" s="24" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B167" s="24" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C167" s="24"/>
     </row>
     <row r="168" spans="1:3" ht="15.75">
       <c r="A168" s="24" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C168" s="24"/>
     </row>
     <row r="169" spans="1:3" ht="15.75">
       <c r="A169" s="24" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B169" s="24" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="C169" s="24"/>
     </row>
     <row r="170" spans="1:3" ht="15.75">
       <c r="A170" s="24" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="C170" s="24"/>
     </row>
     <row r="171" spans="1:3" ht="15.75">
       <c r="A171" s="24" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B171" s="24" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="C171" s="24"/>
     </row>
@@ -7701,28 +8539,28 @@
         <v>1340</v>
       </c>
       <c r="B172" s="24" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15.75">
       <c r="A173" s="24" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B173" s="24" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15.75">
       <c r="A174" s="24" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B174" s="24" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15.75">
       <c r="A175" s="24" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B175" s="24" t="s">
         <v>669</v>
@@ -7730,7 +8568,7 @@
     </row>
     <row r="176" spans="1:3" ht="15.75">
       <c r="A176" s="24" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B176" s="25" t="s">
         <v>671</v>
@@ -7741,25 +8579,25 @@
         <v>1340</v>
       </c>
       <c r="B177" s="24" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15.75">
       <c r="A179" s="30" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.75">
       <c r="A181" s="24" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B181" s="24" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
   </sheetData>
@@ -7773,8 +8611,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8004,13 +8842,1177 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="148.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="19" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>942</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B81" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>653</v>
+      </c>
+      <c r="B131" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B132" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B133" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B135" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>666</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B144" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B291"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView topLeftCell="A283" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A286" sqref="A286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8766,7 +10768,7 @@
     </row>
     <row r="117" spans="1:2" ht="15.75">
       <c r="A117" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B117" s="24" t="s">
         <v>868</v>
@@ -9827,10 +11829,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9841,7 +11843,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="22" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
@@ -9881,10 +11883,10 @@
     </row>
     <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="21" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>1427</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
@@ -9897,7 +11899,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="21" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>746</v>
@@ -9913,7 +11915,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75">
       <c r="A10" s="21" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>748</v>
@@ -9929,10 +11931,10 @@
     </row>
     <row r="12" spans="1:2" ht="15.75">
       <c r="A12" s="21" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>1430</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75">
@@ -9945,419 +11947,448 @@
     </row>
     <row r="14" spans="1:2" ht="15.75">
       <c r="A14" s="21" t="s">
-        <v>1377</v>
+        <v>1528</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1378</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75">
       <c r="A15" s="21" t="s">
-        <v>1433</v>
+        <v>1377</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>1434</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="21" t="s">
-        <v>1379</v>
+        <v>1432</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>1380</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="21" t="s">
-        <v>1436</v>
+        <v>1379</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>1435</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="21" t="s">
-        <v>1381</v>
+        <v>1435</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>1382</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="21" t="s">
-        <v>1438</v>
+        <v>1381</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>1437</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75">
       <c r="A20" s="21" t="s">
-        <v>1383</v>
+        <v>1437</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>1384</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="21" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75">
       <c r="A22" s="21" t="s">
-        <v>1439</v>
+        <v>1385</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>1444</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="21" t="s">
-        <v>1387</v>
+        <v>1533</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>1388</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75">
       <c r="A24" s="21" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>1440</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75">
       <c r="A25" s="21" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>1390</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75">
       <c r="A26" s="21" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75">
       <c r="A27" s="21" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75">
       <c r="A28" s="21" t="s">
-        <v>1393</v>
+        <v>1441</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>1394</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75">
       <c r="A29" s="21" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75">
       <c r="A30" s="21" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75">
       <c r="A31" s="21" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75">
       <c r="A32" s="21" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75">
       <c r="A33" s="21" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>712</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75">
       <c r="A34" s="21" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75">
       <c r="A35" s="21" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>1400</v>
+        <v>712</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75">
       <c r="A36" s="21" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>1396</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75">
       <c r="A37" s="21" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75">
       <c r="A38" s="21" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75">
       <c r="A39" s="21" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75">
       <c r="A40" s="21" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>1414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75">
       <c r="A41" s="21" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75">
       <c r="A42" s="21" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75">
       <c r="A43" s="21" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75">
       <c r="A44" s="21" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75">
       <c r="A45" s="21" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>1342</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75">
       <c r="A46" s="21" t="s">
-        <v>1424</v>
+        <v>1535</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>1344</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75">
       <c r="A47" s="21" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="B47" s="21" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75">
+      <c r="A48" s="21" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75">
+      <c r="A49" s="21" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75">
+      <c r="A50" s="21" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B50" s="21" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75">
-      <c r="A49" s="23" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75">
-      <c r="A51" s="24" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>1446</v>
-      </c>
-    </row>
     <row r="52" spans="1:2" ht="15.75">
-      <c r="A52" s="24" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75">
-      <c r="A53" s="24" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>1448</v>
+      <c r="A52" s="23" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75">
       <c r="A54" s="24" t="s">
-        <v>1451</v>
+        <v>1369</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75">
       <c r="A55" s="24" t="s">
-        <v>1453</v>
+        <v>1371</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1452</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75">
       <c r="A56" s="24" t="s">
-        <v>1340</v>
+        <v>1447</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1464</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75">
       <c r="A57" s="24" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75">
       <c r="A58" s="24" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75">
       <c r="A59" s="24" t="s">
-        <v>1454</v>
+        <v>1340</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>669</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75">
       <c r="A60" s="24" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B60" s="24" t="s">
         <v>1455</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75">
       <c r="A61" s="24" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75">
+      <c r="A62" s="24" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75">
+      <c r="A63" s="24" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75">
+      <c r="A64" s="24" t="s">
         <v>1340</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B64" s="24" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75">
+      <c r="A66" s="26" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75">
-      <c r="A63" s="26" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75">
-      <c r="A65" s="24" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B65" s="24" t="s">
+    <row r="68" spans="1:2" ht="15.75">
+      <c r="A68" s="24" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.75">
-      <c r="A68" s="24"/>
-    </row>
-    <row r="70" spans="1:2" ht="15.75">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
+      <c r="B68" s="24" t="s">
+        <v>1459</v>
+      </c>
     </row>
     <row r="71" spans="1:2" ht="15.75">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
-    </row>
-    <row r="72" spans="1:2" ht="15.75">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
+      <c r="A71" s="21" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>1527</v>
+      </c>
     </row>
     <row r="73" spans="1:2" ht="15.75">
       <c r="A73" s="24"/>
       <c r="B73" s="24"/>
     </row>
+    <row r="74" spans="1:2" ht="15.75">
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+    </row>
     <row r="75" spans="1:2" ht="15.75">
       <c r="A75" s="24"/>
-    </row>
-    <row r="77" spans="1:2" ht="15.75">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24"/>
+      <c r="B75" s="24"/>
+    </row>
+    <row r="76" spans="1:2" ht="15.75">
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
     </row>
     <row r="78" spans="1:2" ht="15.75">
       <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-    </row>
-    <row r="79" spans="1:2" ht="15.75">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
     </row>
     <row r="80" spans="1:2" ht="15.75">
       <c r="A80" s="24"/>
       <c r="B80" s="24"/>
+    </row>
+    <row r="81" spans="1:2" ht="15.75">
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+    </row>
+    <row r="82" spans="1:2" ht="15.75">
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.75">
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11633,8 +13664,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ULS_Jay/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Jay/TestData/IjaraJSPaths.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="11610" windowHeight="8040" tabRatio="599" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="11610" windowHeight="8040" tabRatio="599" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="Al_ADEntry_CustomerDetails_610" sheetId="15" r:id="rId17"/>
     <sheet name="Al_ADEntryDocDetails_610" sheetId="16" r:id="rId18"/>
     <sheet name="TA_ADC_EmploymentDetails" sheetId="19" r:id="rId19"/>
+    <sheet name="PL_NewApp_CustomerDetails_610" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="1807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="1861">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -5431,9 +5432,6 @@
     <t>CustomerFinanceTab</t>
   </si>
   <si>
-    <t>document.querySelectorAll('input[type="text"]')[3]</t>
-  </si>
-  <si>
     <t>searchInput</t>
   </si>
   <si>
@@ -5453,6 +5451,171 @@
   </si>
   <si>
     <t>viewBtnTA</t>
+  </si>
+  <si>
+    <t>PL_NewApp_CustomerDetails_FieldName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Customer Type.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Customer Type.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CIF ID"]')</t>
+  </si>
+  <si>
+    <t>CifID</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CIF ID"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>CifIDTextBox</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Application Number"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Application Number"]')</t>
+  </si>
+  <si>
+    <t>ApplicationNumber</t>
+  </si>
+  <si>
+    <t>ApplicationNumberText</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ID Type.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ID Type.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>IDType</t>
+  </si>
+  <si>
+    <t>IDTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="ID Number"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="ID Number"]')</t>
+  </si>
+  <si>
+    <t>IDNumber</t>
+  </si>
+  <si>
+    <t>IDNumberText</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Mobile Number"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Mobile Number"]')</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>MobileNumberText</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="Date of Birth"]')</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Email ID"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Email ID"]')</t>
+  </si>
+  <si>
+    <t>EmailID</t>
+  </si>
+  <si>
+    <t>EmailIDText</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="Date of Birth"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>DOBInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ptooltip="Search"]')</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ptooltip="Clear"]')</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Customer Name"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>CustomerNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Customer Name"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Mobile Number"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CIF ID"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>IDTypeSelect</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="ID Number"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Application Number"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Customer Name"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="Date of Birth"]').querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>DOBCalendar</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Email ID"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>CreateNewRequest</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[class="p-element p-button-info p-button-sm w-90 m-2 pull-right p-button p-component"]')[2]</t>
+  </si>
+  <si>
+    <t>CifIDText</t>
+  </si>
+  <si>
+    <t>ApplicationNumberTex</t>
+  </si>
+  <si>
+    <t>CustomerNametext</t>
+  </si>
+  <si>
+    <t>IDNumberTex</t>
+  </si>
+  <si>
+    <t>MobileNumberTex</t>
+  </si>
+  <si>
+    <t>EmailIDTex</t>
   </si>
 </sst>
 </file>
@@ -7346,8 +7509,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8846,8 +9009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9954,26 +10117,26 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B139" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B140" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B141" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -9994,10 +10157,10 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B145" t="s">
-        <v>1799</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -11826,6 +11989,292 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="91.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="24" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>691</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75">
+      <c r="A34" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C34" s="24"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet17"/>
